--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1753B-9B24-584F-A338-544266769587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCE0E3-1933-3744-A096-2074F21CF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2259,13 +2259,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>230.9</v>
-    <v>98.71</v>
-    <v>0.85589999999999999</v>
-    <v>1.22</v>
-    <v>1.2140999999999999E-2</v>
-    <v>-0.71</v>
-    <v>-6.9810000000000002E-3</v>
+    <v>194.21</v>
+    <v>84.93</v>
+    <v>0.85250000000000004</v>
+    <v>1.31</v>
+    <v>1.0567999999999999E-2</v>
+    <v>-0.15</v>
+    <v>-1.1969999999999999E-3</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2273,24 +2273,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>102.25</v>
+    <v>126.67</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999789282032</v>
+    <v>45065.953179582815</v>
     <v>0</v>
-    <v>99.521000000000001</v>
-    <v>14760170000</v>
+    <v>123.5</v>
+    <v>18179194927</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>100.65</v>
-    <v>100.49</v>
-    <v>101.71</v>
-    <v>101</v>
+    <v>123.94</v>
+    <v>123.96</v>
+    <v>125.27</v>
+    <v>125.12</v>
     <v>145120100</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>1977063</v>
-    <v>2329756</v>
+    <v>2477070</v>
+    <v>3488990</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2452,9 +2452,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2874,10 +2874,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3590,15 +3590,15 @@
       </c>
       <c r="P16" s="45">
         <f>Q101/I3</f>
-        <v>13.529698078548343</v>
+        <v>16.663698227959955</v>
       </c>
       <c r="Q16" s="45">
         <f>Q101/I28</f>
-        <v>-37.819631134729605</v>
+        <v>-46.580117062709142</v>
       </c>
       <c r="R16" s="46">
         <f>Q101/I106</f>
-        <v>63.805137205401763</v>
+        <v>78.584869049677522</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="Q95" s="57" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.85589999999999999</v>
+        <v>0.85250000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="Q97" s="54">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.7796495000000007E-2</v>
+        <v>7.7650125000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="Q100" s="52">
         <f>Q99/Q103</f>
-        <v>6.6160264792395146E-2</v>
+        <v>5.4394097200563679E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="Q101" s="36" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14760170000</v>
+        <v>18179194927</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="Q102" s="52">
         <f>Q101/Q103</f>
-        <v>0.93383973520760488</v>
+        <v>0.94560590279943635</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="Q103" s="56">
         <f>Q99+Q101</f>
-        <v>15805892000</v>
+        <v>19224916927</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.6111979830539286E-2</v>
+        <v>7.6273151429074482E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
       <c r="M107" s="26"/>
       <c r="N107" s="29">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>17019499977.246532</v>
+        <v>16966001022.313034</v>
       </c>
       <c r="O107" s="30" t="s">
         <v>143</v>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="N108" s="29">
         <f>N107+N106</f>
-        <v>17868183235.356667</v>
+        <v>17814684280.423168</v>
       </c>
       <c r="O108" s="30" t="s">
         <v>138</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="Q108" s="34">
         <f>Q105</f>
-        <v>7.6111979830539286E-2</v>
+        <v>7.6273151429074482E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="K110" s="36">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>13889758590.176306</v>
+        <v>13842828548.643393</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="K113" s="36">
         <f>K110+K111-K112</f>
-        <v>14575375590.176306</v>
+        <v>14528445548.643393</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="K115" s="59">
         <f>K113/K114</f>
-        <v>84.542013542107938</v>
+        <v>84.269803733018605</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="K116" s="58" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>101.71</v>
+        <v>125.27</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="K117" s="39">
         <f>K115/K116-1</f>
-        <v>-0.16879349580072811</v>
+        <v>-0.32729461377010771</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCE0E3-1933-3744-A096-2074F21CF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C87172-1B89-A241-9BA2-E9ACC6B7C677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2261,11 +2261,11 @@
     <v>Powered by Refinitiv</v>
     <v>194.21</v>
     <v>84.93</v>
-    <v>0.85250000000000004</v>
-    <v>1.31</v>
-    <v>1.0567999999999999E-2</v>
-    <v>-0.15</v>
-    <v>-1.1969999999999999E-3</v>
+    <v>0.85599999999999998</v>
+    <v>3.93</v>
+    <v>3.1021E-2</v>
+    <v>0.56000000000000005</v>
+    <v>4.287E-3</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2273,24 +2273,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>126.67</v>
+    <v>134.82</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.953179582815</v>
+    <v>45072.999845289065</v>
     <v>0</v>
-    <v>123.5</v>
-    <v>18179194927</v>
+    <v>126.01009999999999</v>
+    <v>18955590000</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>123.94</v>
-    <v>123.96</v>
-    <v>125.27</v>
-    <v>125.12</v>
+    <v>126.76</v>
+    <v>126.69</v>
+    <v>130.62</v>
+    <v>131.18</v>
     <v>145120100</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>2477070</v>
-    <v>3488990</v>
+    <v>2741738</v>
+    <v>3578465</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2452,9 +2452,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2874,10 +2874,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M98" sqref="M98"/>
+      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3590,15 +3590,15 @@
       </c>
       <c r="P16" s="45">
         <f>Q101/I3</f>
-        <v>16.663698227959955</v>
+        <v>17.375369633327406</v>
       </c>
       <c r="Q16" s="45">
         <f>Q101/I28</f>
-        <v>-46.580117062709142</v>
+        <v>-48.569455618815304</v>
       </c>
       <c r="R16" s="46">
         <f>Q101/I106</f>
-        <v>78.584869049677522</v>
+        <v>81.9410630608822</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="Q95" s="57" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.85250000000000004</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="Q97" s="54">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.7650125000000014E-2</v>
+        <v>7.7800800000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="Q100" s="52">
         <f>Q99/Q103</f>
-        <v>5.4394097200563679E-2</v>
+        <v>5.228267025683115E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="Q101" s="36" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>18179194927</v>
+        <v>18955590000</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="Q102" s="52">
         <f>Q101/Q103</f>
-        <v>0.94560590279943635</v>
+        <v>0.9477173297431688</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="Q103" s="56">
         <f>Q99+Q101</f>
-        <v>19224916927</v>
+        <v>20001312000</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.6273151429074482E-2</v>
+        <v>7.6469399006201796E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
       <c r="M107" s="26"/>
       <c r="N107" s="29">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>16966001022.313034</v>
+        <v>16901311388.113745</v>
       </c>
       <c r="O107" s="30" t="s">
         <v>143</v>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="N108" s="29">
         <f>N107+N106</f>
-        <v>17814684280.423168</v>
+        <v>17749994646.223881</v>
       </c>
       <c r="O108" s="30" t="s">
         <v>138</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="Q108" s="34">
         <f>Q105</f>
-        <v>7.6273151429074482E-2</v>
+        <v>7.6469399006201796E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="K110" s="36">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>13842828548.643393</v>
+        <v>13786084632.777666</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="K113" s="36">
         <f>K110+K111-K112</f>
-        <v>14528445548.643393</v>
+        <v>14471701632.777666</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="K115" s="59">
         <f>K113/K114</f>
-        <v>84.269803733018605</v>
+        <v>83.940670197222389</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="K116" s="58" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>125.27</v>
+        <v>130.62</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="K117" s="39">
         <f>K115/K116-1</f>
-        <v>-0.32729461377010771</v>
+        <v>-0.35736740011313439</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C87172-1B89-A241-9BA2-E9ACC6B7C677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D9CA30-E90A-C54C-92D2-2F09692C8274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -399,9 +399,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,19 +543,44 @@
     <t>Share Dilution (3yr)</t>
   </si>
   <si>
-    <t>Shares (3y diluted)</t>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +907,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -943,7 +971,6 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -983,12 +1010,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,6 +1033,24 @@
     <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,11 +1350,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1355,7 +1394,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$I$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$I$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2139,6 +2178,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2261,11 +2360,9 @@
     <v>Powered by Refinitiv</v>
     <v>194.21</v>
     <v>84.93</v>
-    <v>0.85599999999999998</v>
-    <v>3.93</v>
-    <v>3.1021E-2</v>
-    <v>0.56000000000000005</v>
-    <v>4.287E-3</v>
+    <v>0.84719999999999995</v>
+    <v>-0.01</v>
+    <v>-6.9040000000000003E-5</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2273,24 +2370,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>134.82</v>
+    <v>146.44</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999845289065</v>
+    <v>45099.999436006248</v>
     <v>0</v>
-    <v>126.01009999999999</v>
-    <v>18955590000</v>
+    <v>142.79</v>
+    <v>21130881408</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>126.76</v>
-    <v>126.69</v>
-    <v>130.62</v>
-    <v>131.18</v>
-    <v>145120100</v>
+    <v>144.30000000000001</v>
+    <v>144.85</v>
+    <v>144.84</v>
+    <v>145891200</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>2741738</v>
-    <v>3578465</v>
+    <v>1383</v>
+    <v>3001480</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2322,8 +2418,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2343,7 +2437,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2360,7 +2453,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2371,16 +2464,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2444,19 +2534,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2500,9 +2584,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2510,9 +2591,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2874,18 +2952,17 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="9" width="15" customWidth="1"/>
-    <col min="10" max="14" width="19" customWidth="1"/>
-    <col min="15" max="17" width="21" customWidth="1"/>
+    <col min="10" max="17" width="21" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2938,37 +3015,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -3006,36 +3083,36 @@
         <v>1090946000</v>
       </c>
       <c r="J3" s="22">
-        <v>1561000000</v>
+        <v>1592000000</v>
       </c>
       <c r="K3" s="22">
-        <v>2009000000</v>
+        <v>2039000000</v>
       </c>
       <c r="L3" s="22">
-        <v>2527000000</v>
+        <v>2582000000</v>
       </c>
       <c r="M3" s="22">
-        <v>3182000000</v>
+        <v>3183000000</v>
       </c>
       <c r="N3" s="22">
-        <v>3976000000</v>
-      </c>
-      <c r="O3" s="41" t="s">
+        <v>3897000000</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="R3" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3068,38 +3145,38 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.43086825562401798</v>
+        <v>0.45928396089265644</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2869955156950672</v>
+        <v>0.28077889447236171</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2578397212543555</v>
+        <v>0.2663070132417853</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25920063316185193</v>
+        <v>0.23276529821843539</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24952859836580776</v>
-      </c>
-      <c r="O4" s="43">
+        <v>0.2243166823751177</v>
+      </c>
+      <c r="O4" s="42">
         <f>(I4+H4+G4)/3</f>
         <v>0.53520738402986978</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="42">
         <f>(I20+H20+G20)/3</f>
         <v>1.9422162936945606</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="42">
         <f>(I29+H29+G29)/3</f>
         <v>1.5943240760148953</v>
       </c>
-      <c r="R4" s="43">
-        <f>(I105+H105+G105)/3</f>
+      <c r="R4" s="42">
+        <f>(I106+H106+G106)/3</f>
         <v>1.6073435736433679</v>
       </c>
       <c r="S4" s="16"/>
@@ -3178,17 +3255,17 @@
       <c r="I6" s="10">
         <v>848664000</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="R6" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3219,20 +3296,20 @@
       <c r="I7" s="2">
         <v>0.77790000000000004</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="42">
         <f>I7</f>
         <v>0.77790000000000004</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="43">
         <f>I21</f>
         <v>-0.25700000000000001</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="43">
         <f>I30</f>
         <v>-0.35770000000000002</v>
       </c>
-      <c r="R7" s="44">
-        <f>I106/I3</f>
+      <c r="R7" s="43">
+        <f>I107/I3</f>
         <v>0.2120471590711181</v>
       </c>
     </row>
@@ -3267,7 +3344,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3303,17 +3380,17 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="42" t="s">
+      <c r="Q9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="42" t="s">
+      <c r="R9" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3344,19 +3421,19 @@
       <c r="I10" s="1">
         <v>151735000</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="42">
         <f>I9</f>
         <v>0.26503511631189813</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="43">
         <f>I13</f>
         <v>0.81301365970451334</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="43">
         <f>I80</f>
         <v>0.3754191316527124</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="43">
         <f>I89</f>
         <v>6.3519184267598949E-2</v>
       </c>
@@ -3418,22 +3495,22 @@
       <c r="I12" s="1">
         <v>886954000</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="R12" s="41" t="s">
         <v>119</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="R12" s="42" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3469,15 +3546,15 @@
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="O13" s="43">
+      <c r="O13" s="42">
         <f>I28/I72</f>
         <v>-0.68075702075702071</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="43">
         <f>I28/I54</f>
         <v>-0.13777767579293704</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="43">
         <f>I22/(I72+I56+I61)</f>
         <v>-0.20223875895447993</v>
       </c>
@@ -3491,28 +3568,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,17 +3620,17 @@
       <c r="I15" s="1">
         <v>1176093000</v>
       </c>
-      <c r="O15" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="P15" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q15" s="42" t="s">
+      <c r="O15" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="R15" s="42" t="s">
-        <v>156</v>
+      <c r="P15" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="R15" s="41" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3588,17 +3665,17 @@
         <f>(I35+H35+G35)/3</f>
         <v>4.4726828389374695E-2</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="64">
         <f>Q101/I3</f>
-        <v>17.375369633327406</v>
-      </c>
-      <c r="Q16" s="45">
+        <v>19.369319295363841</v>
+      </c>
+      <c r="Q16" s="64">
         <f>Q101/I28</f>
-        <v>-48.569455618815304</v>
-      </c>
-      <c r="R16" s="46">
-        <f>Q101/I106</f>
-        <v>81.9410630608822</v>
+        <v>-54.143152850019732</v>
+      </c>
+      <c r="R16" s="65">
+        <f>Q101/I107</f>
+        <v>91.344394238583504</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3606,19 +3683,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1">
         <v>5025000</v>
@@ -3658,8 +3735,17 @@
       <c r="I18" s="1">
         <v>49466000</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q18" s="41" t="s">
         <v>157</v>
+      </c>
+      <c r="R18" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3690,14 +3776,41 @@
       <c r="I19" s="10">
         <v>-280368000</v>
       </c>
-      <c r="O19" s="47">
+      <c r="J19" s="59">
+        <v>278100000</v>
+      </c>
+      <c r="K19" s="59">
+        <v>406200000</v>
+      </c>
+      <c r="L19" s="59">
+        <v>565600000</v>
+      </c>
+      <c r="M19" s="59">
+        <v>856300000</v>
+      </c>
+      <c r="N19" s="59">
+        <v>1243000000</v>
+      </c>
+      <c r="O19" s="44">
         <f>I40-I56-I61</f>
         <v>685617000</v>
       </c>
+      <c r="P19" s="64">
+        <f>Q101/J3</f>
+        <v>13.273166713567839</v>
+      </c>
+      <c r="Q19" s="64">
+        <f>Q101/J28</f>
+        <v>83.3894293922652</v>
+      </c>
+      <c r="R19" s="65">
+        <f>Q101/J105</f>
+        <v>-88.684036871312102</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3728,8 +3841,26 @@
         <f t="shared" ref="I20" si="5">(I19/H19)-1</f>
         <v>0.64944668984627341</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="6">(J19/I19)-1</f>
+        <v>-1.9919106317411401</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="7">(K19/J19)-1</f>
+        <v>0.46062567421790712</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="8">(L19/K19)-1</f>
+        <v>0.39241752831117682</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="9">(M19/L19)-1</f>
+        <v>0.51396746817538896</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="10">(N19/M19)-1</f>
+        <v>0.4515940674997081</v>
+      </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
@@ -3758,8 +3889,28 @@
       <c r="H21" s="2">
         <v>-0.2525</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="58">
         <v>-0.25700000000000001</v>
+      </c>
+      <c r="J21" s="60">
+        <f>J19/J3</f>
+        <v>0.1746859296482412</v>
+      </c>
+      <c r="K21" s="60">
+        <f t="shared" ref="K21:N21" si="11">K19/K3</f>
+        <v>0.19921530161844042</v>
+      </c>
+      <c r="L21" s="60">
+        <f t="shared" si="11"/>
+        <v>0.2190549961270333</v>
+      </c>
+      <c r="M21" s="60">
+        <f t="shared" si="11"/>
+        <v>0.26902293433867419</v>
+      </c>
+      <c r="N21" s="60">
+        <f t="shared" si="11"/>
+        <v>0.31896330510649218</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3787,7 +3938,7 @@
       <c r="H22" s="10">
         <v>-207812000</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="57">
         <v>-327429000</v>
       </c>
     </row>
@@ -3964,10 +4115,25 @@
       <c r="I28" s="11">
         <v>-390278000</v>
       </c>
+      <c r="J28" s="61">
+        <v>253400000</v>
+      </c>
+      <c r="K28" s="61">
+        <v>337700000</v>
+      </c>
+      <c r="L28" s="61">
+        <v>461700000</v>
+      </c>
+      <c r="M28" s="61">
+        <v>494000000</v>
+      </c>
+      <c r="N28" s="61">
+        <v>672000000</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3983,22 +4149,41 @@
         <v>-5.1156232374506505E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:G29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:G29" si="12">(F28/E28)-1</f>
         <v>-0.14833858408131728</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.0173093700924793</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" ref="H29" si="7">(H28/G28)-1</f>
+        <f t="shared" ref="H29" si="13">(H28/G28)-1</f>
         <v>1.2762170332534137</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" ref="I29" si="8">(I28/H28)-1</f>
+        <f t="shared" ref="I29" si="14">(I28/H28)-1</f>
         <v>0.48944582469879294</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="15">(J28/I28)-1</f>
+        <v>-1.6492807690928006</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="16">(K28/J28)-1</f>
+        <v>0.33267561168113646</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="17">(L28/K28)-1</f>
+        <v>0.36718981344388513</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="18">(M28/L28)-1</f>
+        <v>6.9958847736625529E-2</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="19">(N28/M28)-1</f>
+        <v>0.36032388663967607</v>
+      </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
     </row>
@@ -4030,6 +4215,26 @@
       <c r="I30" s="2">
         <v>-0.35770000000000002</v>
       </c>
+      <c r="J30" s="62">
+        <f>J28/J3</f>
+        <v>0.15917085427135677</v>
+      </c>
+      <c r="K30" s="62">
+        <f t="shared" ref="K30:N30" si="20">K28/K3</f>
+        <v>0.16562040215792054</v>
+      </c>
+      <c r="L30" s="62">
+        <f t="shared" si="20"/>
+        <v>0.17881487219209916</v>
+      </c>
+      <c r="M30" s="62">
+        <f t="shared" si="20"/>
+        <v>0.15519949732956331</v>
+      </c>
+      <c r="N30" s="62">
+        <f t="shared" si="20"/>
+        <v>0.17244033872209391</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4059,6 +4264,21 @@
       <c r="I31" s="12">
         <v>-2.77</v>
       </c>
+      <c r="J31" s="63">
+        <v>1.75</v>
+      </c>
+      <c r="K31" s="63">
+        <v>2.33</v>
+      </c>
+      <c r="L31" s="63">
+        <v>3.18</v>
+      </c>
+      <c r="M31" s="63">
+        <v>3.4</v>
+      </c>
+      <c r="N31" s="63">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -4149,7 +4369,7 @@
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="20">
@@ -4157,27 +4377,27 @@
         <v>1.8717681524154067E-2</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" ref="D35:G35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:G35" si="21">(D34-C34)/C34</f>
         <v>-1.8373767201281532E-2</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-0.37200408957747588</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.93431536763669953</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.659048605603483E-2</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" ref="H35" si="10">(H34-G34)/G34</f>
+        <f t="shared" ref="H35" si="22">(H34-G34)/G34</f>
         <v>4.8954942276315888E-2</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" ref="I35" si="11">(I34-H34)/H34</f>
+        <f t="shared" ref="I35" si="23">(I34-H34)/H34</f>
         <v>3.8635056835773361E-2</v>
       </c>
     </row>
@@ -4186,28 +4406,28 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -4215,28 +4435,28 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4244,7 +4464,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>92842000</v>
@@ -4273,13 +4493,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>162960000</v>
@@ -4302,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>92842000</v>
@@ -4331,7 +4551,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>24489000</v>
@@ -4360,28 +4580,28 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4389,7 +4609,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>9723000</v>
@@ -4418,7 +4638,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>127054000</v>
@@ -4447,7 +4667,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>11108000</v>
@@ -4476,16 +4696,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1">
         <v>7479000</v>
@@ -4505,16 +4725,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1">
         <v>8708000</v>
@@ -4534,16 +4754,16 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1">
         <v>16187000</v>
@@ -4563,28 +4783,28 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4592,28 +4812,28 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4621,7 +4841,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>15356000</v>
@@ -4650,7 +4870,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>26464000</v>
@@ -4679,28 +4899,28 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4708,7 +4928,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>153518000</v>
@@ -4737,7 +4957,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>1406000</v>
@@ -4766,19 +4986,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>15600000</v>
@@ -4795,28 +5015,28 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4824,7 +5044,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>58490000</v>
@@ -4853,7 +5073,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>18001000</v>
@@ -4882,7 +5102,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>77897000</v>
@@ -4911,19 +5131,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>889638000</v>
@@ -4940,7 +5160,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>7423000</v>
@@ -4969,28 +5189,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4998,7 +5218,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>1531000</v>
@@ -5027,7 +5247,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>8954000</v>
@@ -5056,28 +5276,28 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5085,7 +5305,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>86851000</v>
@@ -5114,7 +5334,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>16000</v>
@@ -5143,7 +5363,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-126556000</v>
@@ -5172,7 +5392,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-10627000</v>
@@ -5201,7 +5421,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>12427000</v>
@@ -5230,7 +5450,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>66667000</v>
@@ -5259,7 +5479,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>153518000</v>
@@ -5288,28 +5508,28 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -5317,28 +5537,28 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5404,16 +5624,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-1392000</v>
@@ -5459,38 +5679,38 @@
     </row>
     <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:G80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:G80" si="24">B79/B3</f>
         <v>2.9065112555160408E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.5029567382508559E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>7.8899432853154303E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>5.9019634650372819E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.15329419223606175</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.28148325059301738</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" ref="H80" si="13">H79/H3</f>
+        <f t="shared" ref="H80" si="25">H79/H3</f>
         <v>0.38409597385232508</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" ref="I80" si="14">I79/I3</f>
+        <f t="shared" ref="I80" si="26">I79/I3</f>
         <v>0.3754191316527124</v>
       </c>
       <c r="J80" s="15"/>
@@ -5565,33 +5785,33 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P83" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="P83" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q83" s="72"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5621,10 +5841,10 @@
       <c r="I84" s="1">
         <v>14358000</v>
       </c>
-      <c r="P84" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q84" s="65"/>
+      <c r="P84" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q84" s="74"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5654,10 +5874,10 @@
       <c r="I85" s="1">
         <v>251002000</v>
       </c>
-      <c r="P85" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q85" s="50">
+      <c r="P85" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q85" s="47">
         <f>I17</f>
         <v>53796000</v>
       </c>
@@ -5690,10 +5910,10 @@
       <c r="I86" s="1">
         <v>156273000</v>
       </c>
-      <c r="P86" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q86" s="50">
+      <c r="P86" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q86" s="47">
         <f>I56</f>
         <v>26100000</v>
       </c>
@@ -5726,10 +5946,10 @@
       <c r="I87" s="10">
         <v>321912000</v>
       </c>
-      <c r="P87" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q87" s="50">
+      <c r="P87" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q87" s="47">
         <f>I61</f>
         <v>1019622000</v>
       </c>
@@ -5762,48 +5982,48 @@
       <c r="I88" s="1">
         <v>-69296000</v>
       </c>
-      <c r="P88" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q88" s="52">
+      <c r="P88" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q88" s="49">
         <f>Q85/(Q86+Q87)</f>
         <v>5.1443882791028593E-2</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:G89" si="15">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:G89" si="27">(-1*B88)/B3</f>
         <v>9.6281676503993899E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>6.7251789604730786E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>6.1908890603498336E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>7.0446012598988292E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>8.4270033945766029E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>9.9872701260698082E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" ref="H89" si="16">(-1*H88)/H3</f>
+        <f t="shared" ref="H89" si="28">(-1*H88)/H3</f>
         <v>7.155697518942207E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" ref="I89" si="17">(-1*I88)/I3</f>
+        <f t="shared" ref="I89" si="29">(-1*I88)/I3</f>
         <v>6.3519184267598949E-2</v>
       </c>
       <c r="J89" s="15"/>
@@ -5812,10 +6032,10 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q89" s="50">
+      <c r="P89" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q89" s="47">
         <f>I27</f>
         <v>6648000</v>
       </c>
@@ -5825,16 +6045,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-11432000</v>
@@ -5848,10 +6068,10 @@
       <c r="I90" s="1">
         <v>-25287000</v>
       </c>
-      <c r="P90" s="49" t="s">
+      <c r="P90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="50">
+      <c r="Q90" s="47">
         <f>I25</f>
         <v>-383630000</v>
       </c>
@@ -5864,10 +6084,10 @@
         <v>-38000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-163366000</v>
@@ -5884,10 +6104,10 @@
       <c r="I91" s="1">
         <v>-844944000</v>
       </c>
-      <c r="P91" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q91" s="52">
+      <c r="P91" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q91" s="49">
         <f>Q89/Q90</f>
         <v>-1.7329197403748404E-2</v>
       </c>
@@ -5900,13 +6120,13 @@
         <v>6148000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>214706000</v>
@@ -5920,10 +6140,10 @@
       <c r="I92" s="1">
         <v>1334874000</v>
       </c>
-      <c r="P92" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q92" s="54">
+      <c r="P92" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q92" s="51">
         <f>Q88*(1-Q91)</f>
         <v>5.2335363991129619E-2</v>
       </c>
@@ -5956,10 +6176,10 @@
       <c r="I93" s="1">
         <v>-21284000</v>
       </c>
-      <c r="P93" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q93" s="67"/>
+      <c r="P93" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q93" s="76"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5989,11 +6209,12 @@
       <c r="I94" s="10">
         <v>374063000</v>
       </c>
-      <c r="P94" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q94" s="55">
-        <v>4.095E-2</v>
+      <c r="P94" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q94" s="52">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6004,32 +6225,32 @@
         <v>-5500000</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P95" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q95" s="57" cm="1">
+        <v>91</v>
+      </c>
+      <c r="P95" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q95" s="54" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.85599999999999998</v>
+        <v>0.84719999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6037,33 +6258,33 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>205344000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P96" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q96" s="55">
+        <v>91</v>
+      </c>
+      <c r="P96" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q96" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6072,13 +6293,13 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-3811000</v>
@@ -6087,20 +6308,20 @@
         <v>-22000</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P97" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q97" s="54">
+        <v>91</v>
+      </c>
+      <c r="P97" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q97" s="51">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.7800800000000003E-2</v>
+        <v>7.6853543999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6108,33 +6329,33 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P98" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q98" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="P98" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q98" s="76"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6164,10 +6385,10 @@
       <c r="I99" s="1">
         <v>41337000</v>
       </c>
-      <c r="P99" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q99" s="50">
+      <c r="P99" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q99" s="47">
         <f>Q86+Q87</f>
         <v>1045722000</v>
       </c>
@@ -6200,12 +6421,12 @@
       <c r="I100" s="10">
         <v>41337000</v>
       </c>
-      <c r="P100" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q100" s="52">
+      <c r="P100" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q100" s="49">
         <f>Q99/Q103</f>
-        <v>5.228267025683115E-2</v>
+        <v>4.7154290526869667E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6213,35 +6434,35 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P101" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q101" s="36" cm="1">
+        <v>91</v>
+      </c>
+      <c r="P101" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q101" s="35" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>18955590000</v>
+        <v>21130881408</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6272,12 +6493,12 @@
       <c r="I102" s="10">
         <v>737312000</v>
       </c>
-      <c r="P102" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q102" s="52">
+      <c r="P102" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q102" s="49">
         <f>Q101/Q103</f>
-        <v>0.9477173297431688</v>
+        <v>0.9528457094731303</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6308,12 +6529,12 @@
       <c r="I103" s="1">
         <v>275898000</v>
       </c>
-      <c r="P103" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q103" s="56">
+      <c r="P103" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q103" s="53">
         <f>Q99+Q101</f>
-        <v>20001312000</v>
+        <v>22176603408</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6344,260 +6565,294 @@
       <c r="I104" s="11">
         <v>1013210000</v>
       </c>
-      <c r="P104" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q104" s="65"/>
+      <c r="P104" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q104" s="74"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.81921073717948723</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.21857622639431817</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-1.1505671810047207</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>12.039307440336922</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.2811771038937714E-2</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:I105" si="18">(H106/G106)-1</f>
-        <v>4.2254980369347095</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="18"/>
-        <v>0.6093444550343321</v>
-      </c>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:H105" si="30">(C22*(1-0.2))+C77+C88+C81</f>
+        <v>-20427400</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="30"/>
+        <v>-24704400</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="30"/>
+        <v>-14678200</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="30"/>
+        <v>-28873400</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="30"/>
+        <v>-104505800</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="30"/>
+        <v>-132388600</v>
+      </c>
+      <c r="I105" s="1">
+        <f>(I22*(1-0.2))+I77+I88+I81</f>
+        <v>-184322200</v>
+      </c>
+      <c r="J105" s="25">
+        <f>I105*(1+$Q$106)</f>
+        <v>-238271532.88773561</v>
+      </c>
+      <c r="K105" s="25">
+        <f t="shared" ref="K105:N105" si="31">J105*(1+$Q$106)</f>
+        <v>-308011315.97100765</v>
+      </c>
+      <c r="L105" s="25">
+        <f t="shared" si="31"/>
+        <v>-398163261.95748895</v>
+      </c>
+      <c r="M105" s="25">
+        <f t="shared" si="31"/>
+        <v>-514701814.35655558</v>
+      </c>
+      <c r="N105" s="25">
+        <f t="shared" si="31"/>
+        <v>-665350078.75793159</v>
+      </c>
+      <c r="O105" s="26" t="s">
+        <v>162</v>
+      </c>
       <c r="P105" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.6469399006201796E-2</v>
+        <v>7.5697406616671625E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-9984000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-18163000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-14193000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>2137000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>27865000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>27508000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>143743000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>231332000</v>
-      </c>
-      <c r="J106" s="25">
-        <f>I106*(1+$Q$106)</f>
-        <v>300011358.18635112</v>
-      </c>
-      <c r="K106" s="25">
-        <f t="shared" ref="K106:N106" si="19">J106*(1+$Q$106)</f>
-        <v>389080693.72511834</v>
-      </c>
-      <c r="L106" s="25">
-        <f t="shared" si="19"/>
-        <v>504593516.54142296</v>
-      </c>
-      <c r="M106" s="25">
-        <f t="shared" si="19"/>
-        <v>654400542.20609057</v>
-      </c>
-      <c r="N106" s="25">
-        <f t="shared" si="19"/>
-        <v>848683258.11013532</v>
+      <c r="A106" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:I106" si="32">(C107/B107)-1</f>
+        <v>0.81921073717948723</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="32"/>
+        <v>-0.21857622639431817</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="32"/>
+        <v>-1.1505671810047207</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="32"/>
+        <v>12.039307440336922</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="32"/>
+        <v>-1.2811771038937714E-2</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="32"/>
+        <v>4.2254980369347095</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="32"/>
+        <v>0.6093444550343321</v>
+      </c>
+      <c r="J106" s="66">
+        <v>350000000</v>
+      </c>
+      <c r="K106" s="66">
+        <v>379400000</v>
+      </c>
+      <c r="L106" s="66">
+        <v>514800000</v>
+      </c>
+      <c r="M106" s="66">
+        <v>658400000</v>
+      </c>
+      <c r="N106" s="66">
+        <v>958300000</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="P106" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q106" s="28">
         <f>(SUM(J4:N4)/5)</f>
-        <v>0.29688654482022009</v>
+        <v>0.2926903698400713</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="A107" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-9984000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-18163000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-14193000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2137000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>27865000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>27508000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>143743000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>231332000</v>
+      </c>
       <c r="J107" s="26"/>
       <c r="K107" s="26"/>
       <c r="L107" s="26"/>
       <c r="M107" s="26"/>
-      <c r="N107" s="29">
+      <c r="N107" s="67">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>16901311388.113745</v>
-      </c>
-      <c r="O107" s="30" t="s">
+        <v>19374906243.76413</v>
+      </c>
+      <c r="O107" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="P107" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q107" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="J108" s="67">
+        <f t="shared" ref="J108:M108" si="33">J107+J106</f>
+        <v>350000000</v>
+      </c>
+      <c r="K108" s="67">
+        <f t="shared" si="33"/>
+        <v>379400000</v>
+      </c>
+      <c r="L108" s="67">
+        <f t="shared" si="33"/>
+        <v>514800000</v>
+      </c>
+      <c r="M108" s="67">
+        <f t="shared" si="33"/>
+        <v>658400000</v>
+      </c>
+      <c r="N108" s="67">
+        <f>N107+N106</f>
+        <v>20333206243.76413</v>
+      </c>
+      <c r="O108" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="P108" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q108" s="33">
+        <f>Q105</f>
+        <v>7.5697406616671625E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="J109" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="P107" s="31" t="s">
+      <c r="K109" s="70"/>
+    </row>
+    <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="J110" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Q107" s="32">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="29">
-        <f t="shared" ref="J108:L108" si="20">J107+J106</f>
-        <v>300011358.18635112</v>
-      </c>
-      <c r="K108" s="29">
-        <f t="shared" si="20"/>
-        <v>389080693.72511834</v>
-      </c>
-      <c r="L108" s="29">
-        <f t="shared" si="20"/>
-        <v>504593516.54142296</v>
-      </c>
-      <c r="M108" s="29">
-        <f>M107+M106</f>
-        <v>654400542.20609057</v>
-      </c>
-      <c r="N108" s="29">
-        <f>N107+N106</f>
-        <v>17749994646.223881</v>
-      </c>
-      <c r="O108" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="P108" s="33" t="s">
+      <c r="K110" s="35">
+        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
+        <v>15675990630.693508</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="J111" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="Q108" s="34">
-        <f>Q105</f>
-        <v>7.6469399006201796E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="K109" s="61"/>
-    </row>
-    <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="K110" s="36">
-        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>13786084632.777666</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="K111" s="36">
+      <c r="K111" s="35">
         <f>I40</f>
         <v>1731339000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="K112" s="36">
+      <c r="J112" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="K112" s="35">
         <f>Q99</f>
         <v>1045722000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="35" t="s">
+      <c r="J113" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K113" s="35">
+        <f>K110+K111-K112</f>
+        <v>16361607630.693508</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J114" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K114" s="45">
+        <f>I34*(1+(O16*5))</f>
+        <v>172403932.42960474</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J115" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K115" s="56">
+        <f>K113/K114</f>
+        <v>94.902751927507296</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J116" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="K116" s="55" cm="1">
+        <f t="array" ref="K116">_FV(A1,"Price")</f>
+        <v>144.84</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J117" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="K113" s="36">
-        <f>K110+K111-K112</f>
-        <v>14471701632.777666</v>
-      </c>
-    </row>
-    <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J114" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="K114" s="48">
-        <f>I34*(1+(5*O16))</f>
-        <v>172403932.42960474</v>
-      </c>
-    </row>
-    <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="37" t="s">
+      <c r="K117" s="38">
+        <f>K115/K116-1</f>
+        <v>-0.34477525595479641</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J118" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="K115" s="59">
-        <f>K113/K114</f>
-        <v>83.940670197222389</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="K116" s="58" cm="1">
-        <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>130.62</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K117" s="39">
-        <f>K115/K116-1</f>
-        <v>-0.35736740011313439</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="K118" s="40" t="str">
+      <c r="K118" s="39" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -6629,9 +6884,10 @@
     <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1713683/000171368321000175/0001713683-21-000175-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1713683/000171368322000081/0001713683-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1713683/000171368322000081/0001713683-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J1" r:id="rId18" display="https://finbox.com/NASDAQGS:ABNB/explorer/revenue_proj" xr:uid="{15CF3C49-908E-6442-BA91-E8CF79CB3CE5}"/>
+    <hyperlink ref="J1" r:id="rId18" display="https://finbox.com/NASDAQGS:ZS/explorer/revenue_proj" xr:uid="{15CF3C49-908E-6442-BA91-E8CF79CB3CE5}"/>
+    <hyperlink ref="O106" r:id="rId19" xr:uid="{2B5F2010-5329-AC45-8B3D-4745A251AD68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D9CA30-E90A-C54C-92D2-2F09692C8274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA7FA6-9194-D34F-A30E-30C7536FAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -921,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1074,6 +1081,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2196,12 +2209,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2218,14 +2232,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2233,6 +2247,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2360,9 +2375,11 @@
     <v>Powered by Refinitiv</v>
     <v>194.21</v>
     <v>84.93</v>
-    <v>0.84719999999999995</v>
-    <v>-0.01</v>
-    <v>-6.9040000000000003E-5</v>
+    <v>0.84489999999999998</v>
+    <v>-0.99</v>
+    <v>-6.9379999999999997E-3</v>
+    <v>0.24</v>
+    <v>1.694E-3</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2370,23 +2387,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>146.44</v>
+    <v>145.37</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999436006248</v>
+    <v>45103.931358495312</v>
     <v>0</v>
-    <v>142.79</v>
-    <v>21130881408</v>
+    <v>140.34889999999999</v>
+    <v>20674241952</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>144.30000000000001</v>
-    <v>144.85</v>
-    <v>144.84</v>
+    <v>142</v>
+    <v>142.69999999999999</v>
+    <v>141.71</v>
+    <v>141.94999999999999</v>
     <v>145891200</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>1383</v>
-    <v>3001480</v>
+    <v>1196000</v>
+    <v>2944702</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2418,6 +2436,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2437,6 +2457,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2453,7 +2474,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2464,13 +2485,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2534,13 +2558,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2584,6 +2614,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2591,6 +2624,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2952,10 +2988,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L95" sqref="L95"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3667,15 +3703,15 @@
       </c>
       <c r="P16" s="64">
         <f>Q101/I3</f>
-        <v>19.369319295363841</v>
+        <v>18.950747289050053</v>
       </c>
       <c r="Q16" s="64">
         <f>Q101/I28</f>
-        <v>-54.143152850019732</v>
+        <v>-52.973116475947911</v>
       </c>
       <c r="R16" s="65">
         <f>Q101/I107</f>
-        <v>91.344394238583504</v>
+        <v>89.370437086092721</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3797,15 +3833,15 @@
       </c>
       <c r="P19" s="64">
         <f>Q101/J3</f>
-        <v>13.273166713567839</v>
+        <v>12.98633288442211</v>
       </c>
       <c r="Q19" s="64">
         <f>Q101/J28</f>
-        <v>83.3894293922652</v>
+        <v>81.587379447513811</v>
       </c>
       <c r="R19" s="65">
         <f>Q101/J105</f>
-        <v>-88.684036871312102</v>
+        <v>-86.767570181121499</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3864,7 +3900,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3912,6 +3948,12 @@
         <f t="shared" si="11"/>
         <v>0.31896330510649218</v>
       </c>
+      <c r="Q21" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="41" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3940,6 +3982,14 @@
       </c>
       <c r="I22" s="57">
         <v>-327429000</v>
+      </c>
+      <c r="Q22" s="77">
+        <f>(-1*I98)/Q101</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="78">
+        <f>I107/Q101</f>
+        <v>1.1189382446867477E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6214,7 +6264,7 @@
       </c>
       <c r="Q94" s="52">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6250,7 +6300,7 @@
       </c>
       <c r="Q95" s="54" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.84719999999999995</v>
+        <v>0.84489999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6321,7 +6371,7 @@
       </c>
       <c r="Q97" s="51">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.6853543999999996E-2</v>
+        <v>7.6770789000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6349,8 +6399,8 @@
       <c r="H98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>91</v>
+      <c r="I98" s="1">
+        <v>0</v>
       </c>
       <c r="P98" s="75" t="s">
         <v>132</v>
@@ -6426,7 +6476,7 @@
       </c>
       <c r="Q100" s="49">
         <f>Q99/Q103</f>
-        <v>4.7154290526869667E-2</v>
+        <v>4.8145660016332976E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6462,7 +6512,7 @@
       </c>
       <c r="Q101" s="35" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21130881408</v>
+        <v>20674241952</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6498,7 +6548,7 @@
       </c>
       <c r="Q102" s="49">
         <f>Q101/Q103</f>
-        <v>0.9528457094731303</v>
+        <v>0.95185433998366697</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6534,7 +6584,7 @@
       </c>
       <c r="Q103" s="53">
         <f>Q99+Q101</f>
-        <v>22176603408</v>
+        <v>21719963952</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6630,7 +6680,7 @@
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.5697406616671625E-2</v>
+        <v>7.5594329335168325E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6726,7 +6776,7 @@
       <c r="M107" s="26"/>
       <c r="N107" s="67">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>19374906243.76413</v>
+        <v>19414379297.191883</v>
       </c>
       <c r="O107" s="29" t="s">
         <v>140</v>
@@ -6757,7 +6807,7 @@
       </c>
       <c r="N108" s="67">
         <f>N107+N106</f>
-        <v>20333206243.76413</v>
+        <v>20372679297.191883</v>
       </c>
       <c r="O108" s="29" t="s">
         <v>136</v>
@@ -6767,7 +6817,7 @@
       </c>
       <c r="Q108" s="33">
         <f>Q105</f>
-        <v>7.5697406616671625E-2</v>
+        <v>7.5594329335168325E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6782,7 +6832,7 @@
       </c>
       <c r="K110" s="35">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>15675990630.693508</v>
+        <v>15710577375.09362</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6809,7 +6859,7 @@
       </c>
       <c r="K113" s="35">
         <f>K110+K111-K112</f>
-        <v>16361607630.693508</v>
+        <v>16396194375.09362</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6827,7 +6877,7 @@
       </c>
       <c r="K115" s="56">
         <f>K113/K114</f>
-        <v>94.902751927507296</v>
+        <v>95.103366518559241</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6836,7 +6886,7 @@
       </c>
       <c r="K116" s="55" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>144.84</v>
+        <v>141.71</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6845,7 +6895,7 @@
       </c>
       <c r="K117" s="38">
         <f>K115/K116-1</f>
-        <v>-0.34477525595479641</v>
+        <v>-0.32888740019364027</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA7FA6-9194-D34F-A30E-30C7536FAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5D5FD-15AC-4C4A-AFD7-EE58E1529BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -799,19 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -844,46 +831,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -928,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -957,100 +904,46 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1058,35 +951,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1138,11 +1063,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ZS</a:t>
+              <a:t>ZScaler</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44708325526529819"/>
+          <c:y val="2.7932960893854747E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1176,10 +1109,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10287799791449427"/>
-          <c:y val="0.17296505042132893"/>
-          <c:w val="0.83038581856100102"/>
-          <c:h val="0.66959552424368007"/>
+          <c:x val="9.0833256582531635E-2"/>
+          <c:y val="0.14223881581841377"/>
+          <c:w val="0.86250527683715605"/>
+          <c:h val="0.70032177891171432"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1591,7 +1524,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2235,7 +2168,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2375,11 +2308,11 @@
     <v>Powered by Refinitiv</v>
     <v>194.21</v>
     <v>84.93</v>
-    <v>0.84489999999999998</v>
-    <v>-0.99</v>
-    <v>-6.9379999999999997E-3</v>
-    <v>0.24</v>
-    <v>1.694E-3</v>
+    <v>0.8468</v>
+    <v>1.46</v>
+    <v>1.008E-2</v>
+    <v>0.19</v>
+    <v>1.2989999999999998E-3</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2387,24 +2320,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>145.37</v>
+    <v>150.10210000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.931358495312</v>
+    <v>45107.999814050781</v>
     <v>0</v>
-    <v>140.34889999999999</v>
-    <v>20674241952</v>
+    <v>146.18</v>
+    <v>21343882560</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>142</v>
-    <v>142.69999999999999</v>
-    <v>141.71</v>
-    <v>141.94999999999999</v>
+    <v>146.46</v>
+    <v>144.84</v>
+    <v>146.30000000000001</v>
+    <v>146.49</v>
     <v>145891200</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>1196000</v>
-    <v>2944702</v>
+    <v>1374295</v>
+    <v>2763315</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2566,9 +2499,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2991,7 +2924,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3133,16 +3066,16 @@
       <c r="N3" s="22">
         <v>3897000000</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3199,19 +3132,19 @@
         <f t="shared" si="0"/>
         <v>0.2243166823751177</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="28">
         <f>(I4+H4+G4)/3</f>
         <v>0.53520738402986978</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="28">
         <f>(I20+H20+G20)/3</f>
         <v>1.9422162936945606</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="Q4" s="28">
         <f>(I29+H29+G29)/3</f>
         <v>1.5943240760148953</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="28">
         <f>(I106+H106+G106)/3</f>
         <v>1.6073435736433679</v>
       </c>
@@ -3291,16 +3224,16 @@
       <c r="I6" s="10">
         <v>848664000</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="27" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3332,19 +3265,19 @@
       <c r="I7" s="2">
         <v>0.77790000000000004</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="28">
         <f>I7</f>
         <v>0.77790000000000004</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="29">
         <f>I21</f>
         <v>-0.25700000000000001</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="29">
         <f>I30</f>
         <v>-0.35770000000000002</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="29">
         <f>I107/I3</f>
         <v>0.2120471590711181</v>
       </c>
@@ -3416,16 +3349,16 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="41" t="s">
+      <c r="R9" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3457,19 +3390,19 @@
       <c r="I10" s="1">
         <v>151735000</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="28">
         <f>I9</f>
         <v>0.26503511631189813</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="29">
         <f>I13</f>
         <v>0.81301365970451334</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="29">
         <f>I80</f>
         <v>0.3754191316527124</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="29">
         <f>I89</f>
         <v>6.3519184267598949E-2</v>
       </c>
@@ -3531,16 +3464,16 @@
       <c r="I12" s="1">
         <v>886954000</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="41" t="s">
+      <c r="P12" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="41" t="s">
+      <c r="Q12" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="27" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3582,15 +3515,15 @@
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="O13" s="42">
+      <c r="O13" s="28">
         <f>I28/I72</f>
         <v>-0.68075702075702071</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="29">
         <f>I28/I54</f>
         <v>-0.13777767579293704</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="29">
         <f>I22/(I72+I56+I61)</f>
         <v>-0.20223875895447993</v>
       </c>
@@ -3656,16 +3589,16 @@
       <c r="I15" s="1">
         <v>1176093000</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="Q15" s="41" t="s">
+      <c r="Q15" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="27" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3701,17 +3634,17 @@
         <f>(I35+H35+G35)/3</f>
         <v>4.4726828389374695E-2</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="38">
         <f>Q101/I3</f>
-        <v>18.950747289050053</v>
-      </c>
-      <c r="Q16" s="64">
+        <v>19.564563745593276</v>
+      </c>
+      <c r="Q16" s="38">
         <f>Q101/I28</f>
-        <v>-52.973116475947911</v>
-      </c>
-      <c r="R16" s="65">
+        <v>-54.688920615561216</v>
+      </c>
+      <c r="R16" s="39">
         <f>Q101/I107</f>
-        <v>89.370437086092721</v>
+        <v>92.26515380492107</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3771,16 +3704,16 @@
       <c r="I18" s="1">
         <v>49466000</v>
       </c>
-      <c r="O18" s="40" t="s">
+      <c r="O18" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="41" t="s">
+      <c r="P18" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="Q18" s="41" t="s">
+      <c r="Q18" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="27" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3812,36 +3745,36 @@
       <c r="I19" s="10">
         <v>-280368000</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="33">
         <v>278100000</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="33">
         <v>406200000</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="33">
         <v>565600000</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="33">
         <v>856300000</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="33">
         <v>1243000000</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="30">
         <f>I40-I56-I61</f>
         <v>685617000</v>
       </c>
-      <c r="P19" s="64">
+      <c r="P19" s="38">
         <f>Q101/J3</f>
-        <v>12.98633288442211</v>
-      </c>
-      <c r="Q19" s="64">
+        <v>13.406961407035176</v>
+      </c>
+      <c r="Q19" s="38">
         <f>Q101/J28</f>
-        <v>81.587379447513811</v>
-      </c>
-      <c r="R19" s="65">
+        <v>84.230002209944757</v>
+      </c>
+      <c r="R19" s="39">
         <f>Q101/J105</f>
-        <v>-86.767570181121499</v>
+        <v>-89.577979800282804</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3925,33 +3858,33 @@
       <c r="H21" s="2">
         <v>-0.2525</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="32">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="34">
         <f>J19/J3</f>
         <v>0.1746859296482412</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="34">
         <f t="shared" ref="K21:N21" si="11">K19/K3</f>
         <v>0.19921530161844042</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="34">
         <f t="shared" si="11"/>
         <v>0.2190549961270333</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21" s="34">
         <f t="shared" si="11"/>
         <v>0.26902293433867419</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="34">
         <f t="shared" si="11"/>
         <v>0.31896330510649218</v>
       </c>
-      <c r="Q21" s="40" t="s">
+      <c r="Q21" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="R21" s="41" t="s">
+      <c r="R21" s="27" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3980,16 +3913,16 @@
       <c r="H22" s="10">
         <v>-207812000</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="31">
         <v>-327429000</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="Q22" s="43">
         <f>(-1*I98)/Q101</f>
         <v>0</v>
       </c>
-      <c r="R22" s="78">
+      <c r="R22" s="44">
         <f>I107/Q101</f>
-        <v>1.1189382446867477E-2</v>
+        <v>1.0838328000995148E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4165,19 +4098,19 @@
       <c r="I28" s="11">
         <v>-390278000</v>
       </c>
-      <c r="J28" s="61">
+      <c r="J28" s="35">
         <v>253400000</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="35">
         <v>337700000</v>
       </c>
-      <c r="L28" s="61">
+      <c r="L28" s="35">
         <v>461700000</v>
       </c>
-      <c r="M28" s="61">
+      <c r="M28" s="35">
         <v>494000000</v>
       </c>
-      <c r="N28" s="61">
+      <c r="N28" s="35">
         <v>672000000</v>
       </c>
     </row>
@@ -4265,23 +4198,23 @@
       <c r="I30" s="2">
         <v>-0.35770000000000002</v>
       </c>
-      <c r="J30" s="62">
+      <c r="J30" s="36">
         <f>J28/J3</f>
         <v>0.15917085427135677</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="36">
         <f t="shared" ref="K30:N30" si="20">K28/K3</f>
         <v>0.16562040215792054</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="36">
         <f t="shared" si="20"/>
         <v>0.17881487219209916</v>
       </c>
-      <c r="M30" s="62">
+      <c r="M30" s="36">
         <f t="shared" si="20"/>
         <v>0.15519949732956331</v>
       </c>
-      <c r="N30" s="62">
+      <c r="N30" s="36">
         <f t="shared" si="20"/>
         <v>0.17244033872209391</v>
       </c>
@@ -4314,19 +4247,19 @@
       <c r="I31" s="12">
         <v>-2.77</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="37">
         <v>1.75</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="37">
         <v>2.33</v>
       </c>
-      <c r="L31" s="63">
+      <c r="L31" s="37">
         <v>3.18</v>
       </c>
-      <c r="M31" s="63">
+      <c r="M31" s="37">
         <v>3.4</v>
       </c>
-      <c r="N31" s="63">
+      <c r="N31" s="37">
         <v>4.63</v>
       </c>
     </row>
@@ -5858,10 +5791,10 @@
       <c r="I83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P83" s="71" t="s">
+      <c r="P83" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="Q83" s="72"/>
+      <c r="Q83" s="68"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5891,10 +5824,10 @@
       <c r="I84" s="1">
         <v>14358000</v>
       </c>
-      <c r="P84" s="73" t="s">
+      <c r="P84" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="Q84" s="74"/>
+      <c r="Q84" s="69"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5924,10 +5857,10 @@
       <c r="I85" s="1">
         <v>251002000</v>
       </c>
-      <c r="P85" s="46" t="s">
+      <c r="P85" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="Q85" s="47">
+      <c r="Q85" s="46">
         <f>I17</f>
         <v>53796000</v>
       </c>
@@ -5960,10 +5893,10 @@
       <c r="I86" s="1">
         <v>156273000</v>
       </c>
-      <c r="P86" s="46" t="s">
+      <c r="P86" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="Q86" s="47">
+      <c r="Q86" s="46">
         <f>I56</f>
         <v>26100000</v>
       </c>
@@ -5996,10 +5929,10 @@
       <c r="I87" s="10">
         <v>321912000</v>
       </c>
-      <c r="P87" s="46" t="s">
+      <c r="P87" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="Q87" s="47">
+      <c r="Q87" s="46">
         <f>I61</f>
         <v>1019622000</v>
       </c>
@@ -6032,10 +5965,10 @@
       <c r="I88" s="1">
         <v>-69296000</v>
       </c>
-      <c r="P88" s="48" t="s">
+      <c r="P88" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="Q88" s="49">
+      <c r="Q88" s="48">
         <f>Q85/(Q86+Q87)</f>
         <v>5.1443882791028593E-2</v>
       </c>
@@ -6082,10 +6015,10 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="46" t="s">
+      <c r="P89" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="Q89" s="47">
+      <c r="Q89" s="46">
         <f>I27</f>
         <v>6648000</v>
       </c>
@@ -6118,10 +6051,10 @@
       <c r="I90" s="1">
         <v>-25287000</v>
       </c>
-      <c r="P90" s="46" t="s">
+      <c r="P90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="47">
+      <c r="Q90" s="46">
         <f>I25</f>
         <v>-383630000</v>
       </c>
@@ -6154,10 +6087,10 @@
       <c r="I91" s="1">
         <v>-844944000</v>
       </c>
-      <c r="P91" s="48" t="s">
+      <c r="P91" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="Q91" s="49">
+      <c r="Q91" s="48">
         <f>Q89/Q90</f>
         <v>-1.7329197403748404E-2</v>
       </c>
@@ -6190,10 +6123,10 @@
       <c r="I92" s="1">
         <v>1334874000</v>
       </c>
-      <c r="P92" s="50" t="s">
+      <c r="P92" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="Q92" s="51">
+      <c r="Q92" s="48">
         <f>Q88*(1-Q91)</f>
         <v>5.2335363991129619E-2</v>
       </c>
@@ -6226,10 +6159,10 @@
       <c r="I93" s="1">
         <v>-21284000</v>
       </c>
-      <c r="P93" s="75" t="s">
+      <c r="P93" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="Q93" s="76"/>
+      <c r="Q93" s="70"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6259,12 +6192,12 @@
       <c r="I94" s="10">
         <v>374063000</v>
       </c>
-      <c r="P94" s="46" t="s">
+      <c r="P94" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="Q94" s="52">
+      <c r="Q94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6295,12 +6228,12 @@
       <c r="I95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P95" s="46" t="s">
+      <c r="P95" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="Q95" s="54" cm="1">
+      <c r="Q95" s="50" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.84489999999999998</v>
+        <v>0.8468</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6331,10 +6264,10 @@
       <c r="I96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P96" s="46" t="s">
+      <c r="P96" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="Q96" s="52">
+      <c r="Q96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6366,12 +6299,12 @@
       <c r="I97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P97" s="50" t="s">
+      <c r="P97" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="Q97" s="51">
+      <c r="Q97" s="48">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.6770789000000006E-2</v>
+        <v>7.7035528000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6402,10 +6335,10 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="75" t="s">
+      <c r="P98" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="Q98" s="76"/>
+      <c r="Q98" s="70"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6435,10 +6368,10 @@
       <c r="I99" s="1">
         <v>41337000</v>
       </c>
-      <c r="P99" s="46" t="s">
+      <c r="P99" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="Q99" s="47">
+      <c r="Q99" s="46">
         <f>Q86+Q87</f>
         <v>1045722000</v>
       </c>
@@ -6471,12 +6404,12 @@
       <c r="I100" s="10">
         <v>41337000</v>
       </c>
-      <c r="P100" s="48" t="s">
+      <c r="P100" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="Q100" s="49">
+      <c r="Q100" s="48">
         <f>Q99/Q103</f>
-        <v>4.8145660016332976E-2</v>
+        <v>4.6705693135296711E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6507,12 +6440,12 @@
       <c r="I101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P101" s="46" t="s">
+      <c r="P101" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Q101" s="35" cm="1">
+      <c r="Q101" s="51" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20674241952</v>
+        <v>21343882560</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6543,12 +6476,12 @@
       <c r="I102" s="10">
         <v>737312000</v>
       </c>
-      <c r="P102" s="48" t="s">
+      <c r="P102" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="Q102" s="49">
+      <c r="Q102" s="48">
         <f>Q101/Q103</f>
-        <v>0.95185433998366697</v>
+        <v>0.95329430686470329</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6579,12 +6512,12 @@
       <c r="I103" s="1">
         <v>275898000</v>
       </c>
-      <c r="P103" s="50" t="s">
+      <c r="P103" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="Q103" s="53">
+      <c r="Q103" s="52">
         <f>Q99+Q101</f>
-        <v>21719963952</v>
+        <v>22389604560</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6615,10 +6548,10 @@
       <c r="I104" s="11">
         <v>1013210000</v>
       </c>
-      <c r="P104" s="73" t="s">
+      <c r="P104" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="Q104" s="74"/>
+      <c r="Q104" s="69"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6652,35 +6585,35 @@
         <f>(I22*(1-0.2))+I77+I88+I81</f>
         <v>-184322200</v>
       </c>
-      <c r="J105" s="25">
+      <c r="J105" s="23">
         <f>I105*(1+$Q$106)</f>
         <v>-238271532.88773561</v>
       </c>
-      <c r="K105" s="25">
+      <c r="K105" s="23">
         <f t="shared" ref="K105:N105" si="31">J105*(1+$Q$106)</f>
         <v>-308011315.97100765</v>
       </c>
-      <c r="L105" s="25">
+      <c r="L105" s="23">
         <f t="shared" si="31"/>
         <v>-398163261.95748895</v>
       </c>
-      <c r="M105" s="25">
+      <c r="M105" s="23">
         <f t="shared" si="31"/>
         <v>-514701814.35655558</v>
       </c>
-      <c r="N105" s="25">
+      <c r="N105" s="23">
         <f t="shared" si="31"/>
         <v>-665350078.75793159</v>
       </c>
-      <c r="O105" s="26" t="s">
+      <c r="O105" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P105" s="23" t="s">
+      <c r="P105" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="Q105" s="24">
+      <c r="Q105" s="54">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.5594329335168325E-2</v>
+        <v>7.5881889719410206E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6716,34 +6649,34 @@
         <f t="shared" si="32"/>
         <v>0.6093444550343321</v>
       </c>
-      <c r="J106" s="66">
+      <c r="J106" s="40">
         <v>350000000</v>
       </c>
-      <c r="K106" s="66">
+      <c r="K106" s="40">
         <v>379400000</v>
       </c>
-      <c r="L106" s="66">
+      <c r="L106" s="40">
         <v>514800000</v>
       </c>
-      <c r="M106" s="66">
+      <c r="M106" s="40">
         <v>658400000</v>
       </c>
-      <c r="N106" s="66">
+      <c r="N106" s="40">
         <v>958300000</v>
       </c>
-      <c r="O106" s="26" t="s">
+      <c r="O106" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="P106" s="27" t="s">
+      <c r="P106" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="Q106" s="28">
+      <c r="Q106" s="56">
         <f>(SUM(J4:N4)/5)</f>
         <v>0.2926903698400713</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68" t="s">
+      <c r="A107" s="42" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -6770,139 +6703,139 @@
       <c r="I107" s="1">
         <v>231332000</v>
       </c>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="67">
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="41">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>19414379297.191883</v>
-      </c>
-      <c r="O107" s="29" t="s">
+        <v>19304658404.32991</v>
+      </c>
+      <c r="O107" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="P107" s="30" t="s">
+      <c r="P107" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="Q107" s="31">
+      <c r="Q107" s="58">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="67">
+      <c r="J108" s="41">
         <f t="shared" ref="J108:M108" si="33">J107+J106</f>
         <v>350000000</v>
       </c>
-      <c r="K108" s="67">
+      <c r="K108" s="41">
         <f t="shared" si="33"/>
         <v>379400000</v>
       </c>
-      <c r="L108" s="67">
+      <c r="L108" s="41">
         <f t="shared" si="33"/>
         <v>514800000</v>
       </c>
-      <c r="M108" s="67">
+      <c r="M108" s="41">
         <f t="shared" si="33"/>
         <v>658400000</v>
       </c>
-      <c r="N108" s="67">
+      <c r="N108" s="41">
         <f>N107+N106</f>
-        <v>20372679297.191883</v>
-      </c>
-      <c r="O108" s="29" t="s">
+        <v>20262958404.32991</v>
+      </c>
+      <c r="O108" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="P108" s="32" t="s">
+      <c r="P108" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="Q108" s="33">
+      <c r="Q108" s="56">
         <f>Q105</f>
-        <v>7.5594329335168325E-2</v>
+        <v>7.5881889719410206E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="69" t="s">
+      <c r="J109" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="K109" s="70"/>
+      <c r="K109" s="66"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="34" t="s">
+      <c r="J110" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="K110" s="35">
+      <c r="K110" s="51">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>15710577375.09362</v>
+        <v>15614441450.32733</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="34" t="s">
+      <c r="J111" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="K111" s="35">
+      <c r="K111" s="51">
         <f>I40</f>
         <v>1731339000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="34" t="s">
+      <c r="J112" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="K112" s="35">
+      <c r="K112" s="51">
         <f>Q99</f>
         <v>1045722000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="34" t="s">
+      <c r="J113" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="K113" s="35">
+      <c r="K113" s="51">
         <f>K110+K111-K112</f>
-        <v>16396194375.09362</v>
+        <v>16300058450.327332</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J114" s="34" t="s">
+      <c r="J114" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="K114" s="45">
+      <c r="K114" s="60">
         <f>I34*(1+(O16*5))</f>
         <v>172403932.42960474</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="36" t="s">
+      <c r="J115" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="K115" s="56">
+      <c r="K115" s="62">
         <f>K113/K114</f>
-        <v>95.103366518559241</v>
+        <v>94.545746263548281</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="34" t="s">
+      <c r="J116" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="K116" s="55" cm="1">
+      <c r="K116" s="63" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>141.71</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="37" t="s">
+      <c r="J117" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="K117" s="38">
+      <c r="K117" s="64">
         <f>K115/K116-1</f>
-        <v>-0.32888740019364027</v>
+        <v>-0.35375429758340204</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="37" t="s">
+      <c r="J118" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="K118" s="39" t="str">
+      <c r="K118" s="65" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5D5FD-15AC-4C4A-AFD7-EE58E1529BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1CB70-1A1C-D141-A2BA-E52B86718EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2133,7 +2133,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2147,10 +2146,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2164,14 +2165,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2181,6 +2182,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2308,11 +2310,11 @@
     <v>Powered by Refinitiv</v>
     <v>194.21</v>
     <v>84.93</v>
-    <v>0.8468</v>
-    <v>1.46</v>
-    <v>1.008E-2</v>
-    <v>0.19</v>
-    <v>1.2989999999999998E-3</v>
+    <v>0.86129999999999995</v>
+    <v>1.44</v>
+    <v>1.0159E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2320,24 +2322,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>150.10210000000001</v>
+    <v>144.00989999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.999814050781</v>
+    <v>45114.995526400002</v>
     <v>0</v>
-    <v>146.18</v>
-    <v>21343882560</v>
+    <v>141.41999999999999</v>
+    <v>20888700000</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>146.46</v>
-    <v>144.84</v>
-    <v>146.30000000000001</v>
-    <v>146.49</v>
+    <v>142.37</v>
+    <v>141.74</v>
+    <v>143.18</v>
+    <v>143.18</v>
     <v>145891200</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>1374295</v>
-    <v>2763315</v>
+    <v>1719756</v>
+    <v>2582980</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2921,10 +2923,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3636,15 +3638,15 @@
       </c>
       <c r="P16" s="38">
         <f>Q101/I3</f>
-        <v>19.564563745593276</v>
+        <v>19.147327182097005</v>
       </c>
       <c r="Q16" s="38">
         <f>Q101/I28</f>
-        <v>-54.688920615561216</v>
+        <v>-53.522617211321162</v>
       </c>
       <c r="R16" s="39">
         <f>Q101/I107</f>
-        <v>92.26515380492107</v>
+        <v>90.297494510054818</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3766,15 +3768,15 @@
       </c>
       <c r="P19" s="38">
         <f>Q101/J3</f>
-        <v>13.406961407035176</v>
+        <v>13.121042713567839</v>
       </c>
       <c r="Q19" s="38">
         <f>Q101/J28</f>
-        <v>84.230002209944757</v>
+        <v>82.43370165745857</v>
       </c>
       <c r="R19" s="39">
         <f>Q101/J105</f>
-        <v>-89.577979800282804</v>
+        <v>-87.66762754593077</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,7 +3924,7 @@
       </c>
       <c r="R22" s="44">
         <f>I107/Q101</f>
-        <v>1.0838328000995148E-2</v>
+        <v>1.1074504397114229E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6197,7 +6199,7 @@
       </c>
       <c r="Q94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6233,7 +6235,7 @@
       </c>
       <c r="Q95" s="50" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.8468</v>
+        <v>0.86129999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6304,7 +6306,7 @@
       </c>
       <c r="Q97" s="48">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.7035528000000006E-2</v>
+        <v>7.7954067000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6409,7 +6411,7 @@
       </c>
       <c r="Q100" s="48">
         <f>Q99/Q103</f>
-        <v>4.6705693135296711E-2</v>
+        <v>4.7674928475434641E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6445,7 +6447,7 @@
       </c>
       <c r="Q101" s="51" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21343882560</v>
+        <v>20888700000</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6481,7 +6483,7 @@
       </c>
       <c r="Q102" s="48">
         <f>Q101/Q103</f>
-        <v>0.95329430686470329</v>
+        <v>0.95232507152456536</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6517,7 +6519,7 @@
       </c>
       <c r="Q103" s="52">
         <f>Q99+Q101</f>
-        <v>22389604560</v>
+        <v>21934422000</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6613,7 +6615,7 @@
       </c>
       <c r="Q105" s="54">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.5881889719410206E-2</v>
+        <v>7.6732697166418715E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6709,7 +6711,7 @@
       <c r="M107" s="24"/>
       <c r="N107" s="41">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>19304658404.32991</v>
+        <v>18987169697.342079</v>
       </c>
       <c r="O107" s="25" t="s">
         <v>140</v>
@@ -6740,7 +6742,7 @@
       </c>
       <c r="N108" s="41">
         <f>N107+N106</f>
-        <v>20262958404.32991</v>
+        <v>19945469697.342079</v>
       </c>
       <c r="O108" s="25" t="s">
         <v>136</v>
@@ -6750,7 +6752,7 @@
       </c>
       <c r="Q108" s="56">
         <f>Q105</f>
-        <v>7.5881889719410206E-2</v>
+        <v>7.6732697166418715E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6765,7 +6767,7 @@
       </c>
       <c r="K110" s="51">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>15614441450.32733</v>
+        <v>15336312190.842115</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6792,7 +6794,7 @@
       </c>
       <c r="K113" s="51">
         <f>K110+K111-K112</f>
-        <v>16300058450.327332</v>
+        <v>16021929190.842115</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6810,7 +6812,7 @@
       </c>
       <c r="K115" s="62">
         <f>K113/K114</f>
-        <v>94.545746263548281</v>
+        <v>92.93250429414725</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6819,7 +6821,7 @@
       </c>
       <c r="K116" s="63" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>146.30000000000001</v>
+        <v>143.18</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6828,7 +6830,7 @@
       </c>
       <c r="K117" s="64">
         <f>K115/K116-1</f>
-        <v>-0.35375429758340204</v>
+        <v>-0.35093934701671148</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1CB70-1A1C-D141-A2BA-E52B86718EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB28DFC2-08FE-5B41-9F34-09B6E7AF1892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2131,8 +2131,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2141,21 +2140,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2165,24 +2165,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2311,10 +2299,8 @@
     <v>194.21</v>
     <v>84.93</v>
     <v>0.86129999999999995</v>
-    <v>1.44</v>
-    <v>1.0159E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>11.09</v>
+    <v>7.7454999999999996E-2</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2322,24 +2308,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>144.00989999999999</v>
+    <v>154.34</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.995526400002</v>
+    <v>45117.998984941405</v>
     <v>0</v>
-    <v>141.41999999999999</v>
-    <v>20888700000</v>
+    <v>143.18</v>
+    <v>22506635424</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>142.37</v>
-    <v>141.74</v>
+    <v>143.27000000000001</v>
     <v>143.18</v>
-    <v>143.18</v>
+    <v>154.27000000000001</v>
     <v>145891200</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>1719756</v>
-    <v>2582980</v>
+    <v>106</v>
+    <v>2488975</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2371,8 +2356,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2392,7 +2375,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2409,7 +2391,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2420,16 +2402,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2493,19 +2472,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2549,9 +2522,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2559,9 +2529,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2922,11 +2889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O95" sqref="O95"/>
+      <selection pane="bottomRight" activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3057,16 +3024,16 @@
         <v>1592000000</v>
       </c>
       <c r="K3" s="22">
-        <v>2039000000</v>
+        <v>2043000000</v>
       </c>
       <c r="L3" s="22">
-        <v>2582000000</v>
+        <v>2586000000</v>
       </c>
       <c r="M3" s="22">
-        <v>3183000000</v>
+        <v>3267000000</v>
       </c>
       <c r="N3" s="22">
-        <v>3897000000</v>
+        <v>4054000000</v>
       </c>
       <c r="O3" s="26" t="s">
         <v>108</v>
@@ -3120,19 +3087,19 @@
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28077889447236171</v>
+        <v>0.28329145728643224</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2663070132417853</v>
+        <v>0.26578560939794427</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23276529821843539</v>
+        <v>0.26334106728538287</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2243166823751177</v>
+        <v>0.24089378634833181</v>
       </c>
       <c r="O4" s="28">
         <f>(I4+H4+G4)/3</f>
@@ -3638,15 +3605,15 @@
       </c>
       <c r="P16" s="38">
         <f>Q101/I3</f>
-        <v>19.147327182097005</v>
+        <v>20.630384477325183</v>
       </c>
       <c r="Q16" s="38">
         <f>Q101/I28</f>
-        <v>-53.522617211321162</v>
+        <v>-57.668214513756858</v>
       </c>
       <c r="R16" s="39">
         <f>Q101/I107</f>
-        <v>90.297494510054818</v>
+        <v>97.291491985544582</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3751,16 +3718,16 @@
         <v>278100000</v>
       </c>
       <c r="K19" s="33">
-        <v>406200000</v>
+        <v>396000000</v>
       </c>
       <c r="L19" s="33">
-        <v>565600000</v>
+        <v>545000000</v>
       </c>
       <c r="M19" s="33">
-        <v>856300000</v>
+        <v>851700000</v>
       </c>
       <c r="N19" s="33">
-        <v>1243000000</v>
+        <v>1260000000</v>
       </c>
       <c r="O19" s="30">
         <f>I40-I56-I61</f>
@@ -3768,15 +3735,15 @@
       </c>
       <c r="P19" s="38">
         <f>Q101/J3</f>
-        <v>13.121042713567839</v>
+        <v>14.137333809045225</v>
       </c>
       <c r="Q19" s="38">
         <f>Q101/J28</f>
-        <v>82.43370165745857</v>
+        <v>88.818608618784523</v>
       </c>
       <c r="R19" s="39">
         <f>Q101/J105</f>
-        <v>-87.66762754593077</v>
+        <v>-93.745149239747207</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3818,19 +3785,19 @@
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="7">(K19/J19)-1</f>
-        <v>0.46062567421790712</v>
+        <v>0.42394822006472488</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="8">(L19/K19)-1</f>
-        <v>0.39241752831117682</v>
+        <v>0.3762626262626263</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="9">(M19/L19)-1</f>
-        <v>0.51396746817538896</v>
+        <v>0.56275229357798162</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="10">(N19/M19)-1</f>
-        <v>0.4515940674997081</v>
+        <v>0.47939415287072906</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
@@ -3869,19 +3836,19 @@
       </c>
       <c r="K21" s="34">
         <f t="shared" ref="K21:N21" si="11">K19/K3</f>
-        <v>0.19921530161844042</v>
+        <v>0.19383259911894274</v>
       </c>
       <c r="L21" s="34">
         <f t="shared" si="11"/>
-        <v>0.2190549961270333</v>
+        <v>0.21075019334880124</v>
       </c>
       <c r="M21" s="34">
         <f t="shared" si="11"/>
-        <v>0.26902293433867419</v>
+        <v>0.26069788797061522</v>
       </c>
       <c r="N21" s="34">
         <f t="shared" si="11"/>
-        <v>0.31896330510649218</v>
+        <v>0.31080414405525408</v>
       </c>
       <c r="Q21" s="26" t="s">
         <v>165</v>
@@ -3924,7 +3891,7 @@
       </c>
       <c r="R22" s="44">
         <f>I107/Q101</f>
-        <v>1.1074504397114229E-2</v>
+        <v>1.0278391045216764E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4104,10 +4071,10 @@
         <v>253400000</v>
       </c>
       <c r="K28" s="35">
-        <v>337700000</v>
+        <v>340000000</v>
       </c>
       <c r="L28" s="35">
-        <v>461700000</v>
+        <v>461400000</v>
       </c>
       <c r="M28" s="35">
         <v>494000000</v>
@@ -4155,15 +4122,15 @@
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="16">(K28/J28)-1</f>
-        <v>0.33267561168113646</v>
+        <v>0.34175217048145234</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="17">(L28/K28)-1</f>
-        <v>0.36718981344388513</v>
+        <v>0.35705882352941187</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="18">(M28/L28)-1</f>
-        <v>6.9958847736625529E-2</v>
+        <v>7.0654529692240953E-2</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="19">(N28/M28)-1</f>
@@ -4206,19 +4173,19 @@
       </c>
       <c r="K30" s="36">
         <f t="shared" ref="K30:N30" si="20">K28/K3</f>
-        <v>0.16562040215792054</v>
+        <v>0.16642192853646598</v>
       </c>
       <c r="L30" s="36">
         <f t="shared" si="20"/>
-        <v>0.17881487219209916</v>
+        <v>0.17842227378190256</v>
       </c>
       <c r="M30" s="36">
         <f t="shared" si="20"/>
-        <v>0.15519949732956331</v>
+        <v>0.15120906029996939</v>
       </c>
       <c r="N30" s="36">
         <f t="shared" si="20"/>
-        <v>0.17244033872209391</v>
+        <v>0.16576221016280218</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4250,19 +4217,19 @@
         <v>-2.77</v>
       </c>
       <c r="J31" s="37">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="K31" s="37">
         <v>2.33</v>
       </c>
       <c r="L31" s="37">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="M31" s="37">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="N31" s="37">
-        <v>4.63</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6199,7 +6166,7 @@
       </c>
       <c r="Q94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6306,7 +6273,7 @@
       </c>
       <c r="Q97" s="48">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.7954067000000002E-2</v>
+        <v>7.7963776000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6411,7 +6378,7 @@
       </c>
       <c r="Q100" s="48">
         <f>Q99/Q103</f>
-        <v>4.7674928475434641E-2</v>
+        <v>4.4399886651448436E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6447,7 +6414,7 @@
       </c>
       <c r="Q101" s="51" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20888700000</v>
+        <v>22506635424</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6483,7 +6450,7 @@
       </c>
       <c r="Q102" s="48">
         <f>Q101/Q103</f>
-        <v>0.95232507152456536</v>
+        <v>0.95560011334855155</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6519,7 +6486,7 @@
       </c>
       <c r="Q103" s="52">
         <f>Q99+Q101</f>
-        <v>21934422000</v>
+        <v>23552357424</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6589,23 +6556,23 @@
       </c>
       <c r="J105" s="23">
         <f>I105*(1+$Q$106)</f>
-        <v>-238271532.88773561</v>
+        <v>-240083200.10714072</v>
       </c>
       <c r="K105" s="23">
         <f t="shared" ref="K105:N105" si="31">J105*(1+$Q$106)</f>
-        <v>-308011315.97100765</v>
+        <v>-312712972.03313208</v>
       </c>
       <c r="L105" s="23">
         <f t="shared" si="31"/>
-        <v>-398163261.95748895</v>
+        <v>-407314642.73282951</v>
       </c>
       <c r="M105" s="23">
         <f t="shared" si="31"/>
-        <v>-514701814.35655558</v>
+        <v>-530535132.92373055</v>
       </c>
       <c r="N105" s="23">
         <f t="shared" si="31"/>
-        <v>-665350078.75793159</v>
+        <v>-691032184.30333686</v>
       </c>
       <c r="O105" s="24" t="s">
         <v>162</v>
@@ -6615,7 +6582,7 @@
       </c>
       <c r="Q105" s="54">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.6732697166418715E-2</v>
+        <v>7.6825877411749552E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6655,16 +6622,16 @@
         <v>350000000</v>
       </c>
       <c r="K106" s="40">
-        <v>379400000</v>
+        <v>369500000</v>
       </c>
       <c r="L106" s="40">
-        <v>514800000</v>
+        <v>490500000</v>
       </c>
       <c r="M106" s="40">
-        <v>658400000</v>
+        <v>722400000</v>
       </c>
       <c r="N106" s="40">
-        <v>958300000</v>
+        <v>1046000000</v>
       </c>
       <c r="O106" s="24" t="s">
         <v>163</v>
@@ -6674,7 +6641,7 @@
       </c>
       <c r="Q106" s="56">
         <f>(SUM(J4:N4)/5)</f>
-        <v>0.2926903698400713</v>
+        <v>0.30251917624214952</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,7 +6678,7 @@
       <c r="M107" s="24"/>
       <c r="N107" s="41">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>18987169697.342079</v>
+        <v>20687541698.173557</v>
       </c>
       <c r="O107" s="25" t="s">
         <v>140</v>
@@ -6730,19 +6697,19 @@
       </c>
       <c r="K108" s="41">
         <f t="shared" si="33"/>
-        <v>379400000</v>
+        <v>369500000</v>
       </c>
       <c r="L108" s="41">
         <f t="shared" si="33"/>
-        <v>514800000</v>
+        <v>490500000</v>
       </c>
       <c r="M108" s="41">
         <f t="shared" si="33"/>
-        <v>658400000</v>
+        <v>722400000</v>
       </c>
       <c r="N108" s="41">
         <f>N107+N106</f>
-        <v>19945469697.342079</v>
+        <v>21733541698.173557</v>
       </c>
       <c r="O108" s="25" t="s">
         <v>136</v>
@@ -6752,7 +6719,7 @@
       </c>
       <c r="Q108" s="56">
         <f>Q105</f>
-        <v>7.6732697166418715E-2</v>
+        <v>7.6825877411749552E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6767,7 +6734,7 @@
       </c>
       <c r="K110" s="51">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>15336312190.842115</v>
+        <v>16584562441.30262</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6794,7 +6761,7 @@
       </c>
       <c r="K113" s="51">
         <f>K110+K111-K112</f>
-        <v>16021929190.842115</v>
+        <v>17270179441.30262</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6812,7 +6779,7 @@
       </c>
       <c r="K115" s="62">
         <f>K113/K114</f>
-        <v>92.93250429414725</v>
+        <v>100.17276983142081</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6821,7 +6788,7 @@
       </c>
       <c r="K116" s="63" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>143.18</v>
+        <v>154.27000000000001</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6830,7 +6797,7 @@
       </c>
       <c r="K117" s="64">
         <f>K115/K116-1</f>
-        <v>-0.35093934701671148</v>
+        <v>-0.35066591150955595</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB28DFC2-08FE-5B41-9F34-09B6E7AF1892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F852BD-A7F3-7447-84FF-1573E61AD9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2141,6 +2141,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2152,7 +2153,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2171,6 +2172,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2298,9 +2300,11 @@
     <v>Powered by Refinitiv</v>
     <v>194.21</v>
     <v>84.93</v>
-    <v>0.86129999999999995</v>
-    <v>11.09</v>
-    <v>7.7454999999999996E-2</v>
+    <v>0.85470000000000002</v>
+    <v>6.88</v>
+    <v>4.6383000000000001E-2</v>
+    <v>-1.46</v>
+    <v>-9.4070000000000004E-3</v>
     <v>USD</v>
     <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
     <v>4975</v>
@@ -2308,23 +2312,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>154.34</v>
+    <v>156.375</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.998984941405</v>
+    <v>45132.964825555471</v>
     <v>0</v>
-    <v>143.18</v>
-    <v>22506635424</v>
+    <v>151.1</v>
+    <v>22643773152</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>143.27000000000001</v>
-    <v>143.18</v>
-    <v>154.27000000000001</v>
+    <v>153.83000000000001</v>
+    <v>148.33000000000001</v>
+    <v>155.21</v>
+    <v>153.75</v>
     <v>145891200</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>106</v>
-    <v>2488975</v>
+    <v>2895264</v>
+    <v>2578721</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2356,6 +2361,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2375,6 +2382,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2391,7 +2399,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2402,13 +2410,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2472,13 +2483,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2522,6 +2539,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2529,6 +2549,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2889,11 +2912,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J124" sqref="J124"/>
+      <selection pane="bottomRight" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3605,15 +3628,15 @@
       </c>
       <c r="P16" s="38">
         <f>Q101/I3</f>
-        <v>20.630384477325183</v>
+        <v>20.756089808294821</v>
       </c>
       <c r="Q16" s="38">
         <f>Q101/I28</f>
-        <v>-57.668214513756858</v>
+        <v>-58.019599239516445</v>
       </c>
       <c r="R16" s="39">
         <f>Q101/I107</f>
-        <v>97.291491985544582</v>
+        <v>97.884309788529038</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3735,15 +3758,15 @@
       </c>
       <c r="P19" s="38">
         <f>Q101/J3</f>
-        <v>14.137333809045225</v>
+        <v>14.22347559798995</v>
       </c>
       <c r="Q19" s="38">
         <f>Q101/J28</f>
-        <v>88.818608618784523</v>
+        <v>89.359799337016568</v>
       </c>
       <c r="R19" s="39">
         <f>Q101/J105</f>
-        <v>-93.745149239747207</v>
+        <v>-94.316358420309612</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3891,7 +3914,7 @@
       </c>
       <c r="R22" s="44">
         <f>I107/Q101</f>
-        <v>1.0278391045216764E-2</v>
+        <v>1.0216141914474518E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6166,7 +6189,7 @@
       </c>
       <c r="Q94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6202,7 +6225,7 @@
       </c>
       <c r="Q95" s="50" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.86129999999999995</v>
+        <v>0.85470000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6273,7 +6296,7 @@
       </c>
       <c r="Q97" s="48">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.7963776000000012E-2</v>
+        <v>7.7478935999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6378,7 +6401,7 @@
       </c>
       <c r="Q100" s="48">
         <f>Q99/Q103</f>
-        <v>4.4399886651448436E-2</v>
+        <v>4.4142857130989317E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6414,7 +6437,7 @@
       </c>
       <c r="Q101" s="51" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22506635424</v>
+        <v>22643773152</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6450,7 +6473,7 @@
       </c>
       <c r="Q102" s="48">
         <f>Q101/Q103</f>
-        <v>0.95560011334855155</v>
+        <v>0.95585714286901069</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6486,7 +6509,7 @@
       </c>
       <c r="Q103" s="52">
         <f>Q99+Q101</f>
-        <v>23552357424</v>
+        <v>23689495152</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6582,7 +6605,7 @@
       </c>
       <c r="Q105" s="54">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.6825877411749552E-2</v>
+        <v>7.6369026893049696E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6678,7 +6701,7 @@
       <c r="M107" s="24"/>
       <c r="N107" s="41">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>20687541698.173557</v>
+        <v>20871526381.689419</v>
       </c>
       <c r="O107" s="25" t="s">
         <v>140</v>
@@ -6709,7 +6732,7 @@
       </c>
       <c r="N108" s="41">
         <f>N107+N106</f>
-        <v>21733541698.173557</v>
+        <v>21917526381.689419</v>
       </c>
       <c r="O108" s="25" t="s">
         <v>136</v>
@@ -6719,7 +6742,7 @@
       </c>
       <c r="Q108" s="56">
         <f>Q105</f>
-        <v>7.6825877411749552E-2</v>
+        <v>7.6369026893049696E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6734,7 +6757,7 @@
       </c>
       <c r="K110" s="51">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>16584562441.30262</v>
+        <v>16745609948.137224</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6761,7 +6784,7 @@
       </c>
       <c r="K113" s="51">
         <f>K110+K111-K112</f>
-        <v>17270179441.30262</v>
+        <v>17431226948.137222</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6779,7 +6802,7 @@
       </c>
       <c r="K115" s="62">
         <f>K113/K114</f>
-        <v>100.17276983142081</v>
+        <v>101.10689879567956</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6788,7 +6811,7 @@
       </c>
       <c r="K116" s="63" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>154.27000000000001</v>
+        <v>155.21</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6797,7 +6820,7 @@
       </c>
       <c r="K117" s="64">
         <f>K115/K116-1</f>
-        <v>-0.35066591150955595</v>
+        <v>-0.34857999616210589</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F852BD-A7F3-7447-84FF-1573E61AD9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8FA94-6B30-AE4D-9466-CAE42FC55C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,19 +561,25 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Shares (4% Dilution)</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -913,11 +926,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,8 +954,6 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -960,58 +966,120 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,7 +1120,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1068,14 +1136,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44708325526529819"/>
-          <c:y val="2.7932960893854747E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,7 +1149,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1109,15 +1169,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0833256582531635E-2"/>
-          <c:y val="0.14223881581841377"/>
-          <c:w val="0.86250527683715605"/>
-          <c:h val="0.70032177891171432"/>
+          <c:x val="9.8895867768595033E-2"/>
+          <c:y val="0.14503874977643469"/>
+          <c:w val="0.84292231404958684"/>
+          <c:h val="0.6817497958952945"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1166,12 +1226,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$I$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>53707000</c:v>
                 </c:pt>
@@ -1195,13 +1303,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1090946000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1592000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2041000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2583000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3263000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4054000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3060-8C46-AD81-49F7045060DB}"/>
+              <c16:uniqueId val="{00000000-DAB1-1D47-8B9E-0749F82489C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1210,11 +1333,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,42 +1375,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$I$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-9745000</c:v>
+                  <c:v>-12832000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22098000</c:v>
+                  <c:v>-27438000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-27743000</c:v>
+                  <c:v>-35460000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24321000</c:v>
+                  <c:v>-33646000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16606000</c:v>
+                  <c:v>-28655000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-86585000</c:v>
+                  <c:v>-115116000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-169977000</c:v>
+                  <c:v>-262029000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-280368000</c:v>
+                  <c:v>-390278000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>253400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>461400000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>494000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>672000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3060-8C46-AD81-49F7045060DB}"/>
+              <c16:uniqueId val="{00000001-DAB1-1D47-8B9E-0749F82489C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1338,12 +1524,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$I$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$N$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-9984000</c:v>
                 </c:pt>
@@ -1367,13 +1601,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>231332000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>369500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>490500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>722400000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1046000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3060-8C46-AD81-49F7045060DB}"/>
+              <c16:uniqueId val="{00000002-DAB1-1D47-8B9E-0749F82489C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1385,13 +1634,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="656923199"/>
-        <c:axId val="656931423"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1690690832"/>
+        <c:axId val="1690622832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656923199"/>
+        <c:axId val="1690690832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1668,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1431,7 +1680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656931423"/>
+        <c:crossAx val="1690622832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656931423"/>
+        <c:axId val="1690622832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656923199"/>
+        <c:crossAx val="1690690832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,10 +1754,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2610172998448187"/>
-          <c:y val="0.88246138969470922"/>
-          <c:w val="0.47796540031036266"/>
-          <c:h val="7.1924575217571493E-2"/>
+          <c:x val="0.34443209474848702"/>
+          <c:y val="0.88966970715492411"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.0311897937453604E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1524,7 +1773,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1615,7 +1864,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1853,7 +2102,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2088,22 +2336,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1504461</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521A831E-FD0E-60E7-0A45-23E0F615C561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1142119-98BB-2627-C6A8-4BD9C9D6D11B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,38 +2379,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2298,38 +2546,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>194.21</v>
+    <v>177.69</v>
     <v>84.93</v>
-    <v>0.85470000000000002</v>
-    <v>6.88</v>
-    <v>4.6383000000000001E-2</v>
-    <v>-1.46</v>
-    <v>-9.4070000000000004E-3</v>
+    <v>0.80549999999999999</v>
+    <v>-1.33</v>
+    <v>-7.8049999999999994E-3</v>
+    <v>-0.22</v>
+    <v>-1.3009999999999999E-3</v>
     <v>USD</v>
-    <v>Zscaler, Inc. (Zscaler) is a cloud security company that has developed a platform incorporating security functionalities needed to enable access to cloud resources based on identity, context, and organization policies. Its solution is a multi-tenant, distributed cloud platform that secures user-to-app, app-to-app, and machine-to-machine communications over various networks and locations. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. Its Zero Trust Exchange is a cloud-native security platform that protects various customers from cyberattacks and data loss by connecting users, devices, and applications in any location. The Company's cloud services include Zscaler Internet Access (ZIA), Zscaler Private Access (ZPA), and Zscaler Digital Experience (ZDX).</v>
-    <v>4975</v>
+    <v>Zscaler, Inc. is a cloud security company, which has developed a platform incorporating core security functionalities needed to enable access to cloud resources based on identity, context and organization’s policies. The Company’s solution is a purpose-built, multi-tenant, distributed cloud platform that incorporates the security functionality needed to enable users, applications and devices to utilize authorized applications and services based on an organization’s business policies. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. The Company’s cloud-native platform, the Zscaler Zero Trust Exchange, enables customers to secure and connect users, workloads and Internet of things (IoT)/ operational technology (OT) devices across three core products, Zscaler for Users, Zscaler for Workloads and Zscaler for IoT/OT.</v>
+    <v>5962</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>156.375</v>
+    <v>177.69</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.964825555471</v>
+    <v>45218.999968633594</v>
     <v>0</v>
-    <v>151.1</v>
-    <v>22643773152</v>
+    <v>168.49</v>
+    <v>24881829016</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>153.83000000000001</v>
-    <v>148.33000000000001</v>
-    <v>155.21</v>
-    <v>153.75</v>
-    <v>145891200</v>
+    <v>175.01</v>
+    <v>170.4</v>
+    <v>169.07</v>
+    <v>168.85</v>
+    <v>147168800</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>2895264</v>
-    <v>2578721</v>
+    <v>1903757</v>
+    <v>1630899</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2910,21 +3158,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H115" sqref="H115"/>
+      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="9" width="15" customWidth="1"/>
-    <col min="10" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="10" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -3047,27 +3294,27 @@
         <v>1592000000</v>
       </c>
       <c r="K3" s="22">
-        <v>2043000000</v>
+        <v>2041000000</v>
       </c>
       <c r="L3" s="22">
-        <v>2586000000</v>
+        <v>2583000000</v>
       </c>
       <c r="M3" s="22">
-        <v>3267000000</v>
+        <v>3263000000</v>
       </c>
       <c r="N3" s="22">
         <v>4054000000</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3110,33 +3357,33 @@
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28329145728643224</v>
+        <v>0.28203517587939708</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26578560939794427</v>
+        <v>0.26555609995100449</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26334106728538287</v>
+        <v>0.26325977545489732</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24089378634833181</v>
-      </c>
-      <c r="O4" s="28">
+        <v>0.24241495556236603</v>
+      </c>
+      <c r="O4" s="25">
         <f>(I4+H4+G4)/3</f>
         <v>0.53520738402986978</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="25">
         <f>(I20+H20+G20)/3</f>
         <v>1.9422162936945606</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="25">
         <f>(I29+H29+G29)/3</f>
         <v>1.5943240760148953</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="25">
         <f>(I106+H106+G106)/3</f>
         <v>1.6073435736433679</v>
       </c>
@@ -3216,16 +3463,16 @@
       <c r="I6" s="10">
         <v>848664000</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="70" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3257,21 +3504,21 @@
       <c r="I7" s="2">
         <v>0.77790000000000004</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="25">
         <f>I7</f>
         <v>0.77790000000000004</v>
       </c>
-      <c r="P7" s="29">
-        <f>I21</f>
-        <v>-0.25700000000000001</v>
-      </c>
-      <c r="Q7" s="29">
-        <f>I30</f>
-        <v>-0.35770000000000002</v>
-      </c>
-      <c r="R7" s="29">
-        <f>I107/I3</f>
-        <v>0.2120471590711181</v>
+      <c r="P7" s="26">
+        <f>J21</f>
+        <v>0.1746859296482412</v>
+      </c>
+      <c r="Q7" s="26">
+        <f>J30</f>
+        <v>0.15917085427135677</v>
+      </c>
+      <c r="R7" s="26">
+        <f>J107/J3</f>
+        <v>0.21984924623115579</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3341,16 +3588,16 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="24" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3382,19 +3629,19 @@
       <c r="I10" s="1">
         <v>151735000</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="25">
         <f>I9</f>
         <v>0.26503511631189813</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="26">
         <f>I13</f>
         <v>0.81301365970451334</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="26">
         <f>I80</f>
         <v>0.3754191316527124</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="26">
         <f>I89</f>
         <v>6.3519184267598949E-2</v>
       </c>
@@ -3456,16 +3703,16 @@
       <c r="I12" s="1">
         <v>886954000</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3507,15 +3754,15 @@
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="O13" s="28">
+      <c r="O13" s="25">
         <f>I28/I72</f>
         <v>-0.68075702075702071</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="26">
         <f>I28/I54</f>
         <v>-0.13777767579293704</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="26">
         <f>I22/(I72+I56+I61)</f>
         <v>-0.20223875895447993</v>
       </c>
@@ -3581,16 +3828,16 @@
       <c r="I15" s="1">
         <v>1176093000</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="24" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3626,17 +3873,17 @@
         <f>(I35+H35+G35)/3</f>
         <v>4.4726828389374695E-2</v>
       </c>
-      <c r="P16" s="38">
-        <f>Q101/I3</f>
-        <v>20.756089808294821</v>
-      </c>
-      <c r="Q16" s="38">
-        <f>Q101/I28</f>
-        <v>-58.019599239516445</v>
-      </c>
-      <c r="R16" s="39">
-        <f>Q101/I107</f>
-        <v>97.884309788529038</v>
+      <c r="P16" s="35">
+        <f>Q102/I3</f>
+        <v>22.807571608493912</v>
+      </c>
+      <c r="Q16" s="35">
+        <f>Q102/I28</f>
+        <v>-63.754116337585003</v>
+      </c>
+      <c r="R16" s="36">
+        <f>Q102/I107</f>
+        <v>107.5589586222399</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3696,16 +3943,16 @@
       <c r="I18" s="1">
         <v>49466000</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="R18" s="27" t="s">
+      <c r="R18" s="24" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3737,36 +3984,36 @@
       <c r="I19" s="10">
         <v>-280368000</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="30">
         <v>278100000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="30">
         <v>396000000</v>
       </c>
-      <c r="L19" s="33">
-        <v>545000000</v>
-      </c>
-      <c r="M19" s="33">
+      <c r="L19" s="30">
+        <v>540000000</v>
+      </c>
+      <c r="M19" s="30">
         <v>851700000</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="30">
         <v>1260000000</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="27">
         <f>I40-I56-I61</f>
         <v>685617000</v>
       </c>
-      <c r="P19" s="38">
-        <f>Q101/J3</f>
-        <v>14.22347559798995</v>
-      </c>
-      <c r="Q19" s="38">
-        <f>Q101/J28</f>
-        <v>89.359799337016568</v>
-      </c>
-      <c r="R19" s="39">
-        <f>Q101/J105</f>
-        <v>-94.316358420309612</v>
+      <c r="P19" s="35">
+        <f>Q102/J3</f>
+        <v>15.629289582914573</v>
+      </c>
+      <c r="Q19" s="35">
+        <f>Q102/J28</f>
+        <v>98.191906140489351</v>
+      </c>
+      <c r="R19" s="36">
+        <f>Q102/J107</f>
+        <v>71.090940045714291</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3812,11 +4059,11 @@
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="8">(L19/K19)-1</f>
-        <v>0.3762626262626263</v>
+        <v>0.36363636363636354</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="9">(M19/L19)-1</f>
-        <v>0.56275229357798162</v>
+        <v>0.5772222222222223</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="10">(N19/M19)-1</f>
@@ -3825,7 +4072,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3850,33 +4097,36 @@
       <c r="H21" s="2">
         <v>-0.2525</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="29">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="31">
         <f>J19/J3</f>
         <v>0.1746859296482412</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="31">
         <f t="shared" ref="K21:N21" si="11">K19/K3</f>
-        <v>0.19383259911894274</v>
-      </c>
-      <c r="L21" s="34">
+        <v>0.19402253797158256</v>
+      </c>
+      <c r="L21" s="31">
         <f t="shared" si="11"/>
-        <v>0.21075019334880124</v>
-      </c>
-      <c r="M21" s="34">
+        <v>0.20905923344947736</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="11"/>
-        <v>0.26069788797061522</v>
-      </c>
-      <c r="N21" s="34">
+        <v>0.26101746858718972</v>
+      </c>
+      <c r="N21" s="31">
         <f t="shared" si="11"/>
         <v>0.31080414405525408</v>
       </c>
-      <c r="Q21" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="R21" s="27" t="s">
+      <c r="P21" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="R21" s="24" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3905,16 +4155,20 @@
       <c r="H22" s="10">
         <v>-207812000</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="28">
         <v>-327429000</v>
       </c>
-      <c r="Q22" s="43">
-        <f>(-1*I98)/Q101</f>
+      <c r="P22" s="25">
+        <f>SUM(K29:N29)/4</f>
+        <v>0.28244735258569531</v>
+      </c>
+      <c r="Q22" s="38">
+        <f>(-1*I98)/Q102</f>
         <v>0</v>
       </c>
-      <c r="R22" s="44">
-        <f>I107/Q101</f>
-        <v>1.0216141914474518E-2</v>
+      <c r="R22" s="39">
+        <f>J107/Q102</f>
+        <v>1.4066490038772316E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4090,19 +4344,19 @@
       <c r="I28" s="11">
         <v>-390278000</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="32">
         <v>253400000</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="32">
         <v>340000000</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="32">
         <v>461400000</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="32">
         <v>494000000</v>
       </c>
-      <c r="N28" s="35">
+      <c r="N28" s="32">
         <v>672000000</v>
       </c>
     </row>
@@ -4190,23 +4444,23 @@
       <c r="I30" s="2">
         <v>-0.35770000000000002</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="33">
         <f>J28/J3</f>
         <v>0.15917085427135677</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="33">
         <f t="shared" ref="K30:N30" si="20">K28/K3</f>
-        <v>0.16642192853646598</v>
-      </c>
-      <c r="L30" s="36">
+        <v>0.16658500734933857</v>
+      </c>
+      <c r="L30" s="33">
         <f t="shared" si="20"/>
-        <v>0.17842227378190256</v>
-      </c>
-      <c r="M30" s="36">
+        <v>0.17862950058072008</v>
+      </c>
+      <c r="M30" s="33">
         <f t="shared" si="20"/>
-        <v>0.15120906029996939</v>
-      </c>
-      <c r="N30" s="36">
+        <v>0.15139442231075698</v>
+      </c>
+      <c r="N30" s="33">
         <f t="shared" si="20"/>
         <v>0.16576221016280218</v>
       </c>
@@ -4239,19 +4493,19 @@
       <c r="I31" s="12">
         <v>-2.77</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="34">
         <v>1.74</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="34">
         <v>2.33</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="34">
         <v>3.16</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="34">
         <v>3.39</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="34">
         <v>4.6100000000000003</v>
       </c>
     </row>
@@ -4284,7 +4538,7 @@
         <v>-2.77</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4312,8 +4566,12 @@
       <c r="I33" s="1">
         <v>140895000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" cm="1">
+        <f t="array" ref="J33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>147168800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4341,8 +4599,12 @@
       <c r="I34" s="1">
         <v>140895000</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" cm="1">
+        <f t="array" ref="J34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>147168800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>104</v>
       </c>
@@ -4372,11 +4634,15 @@
         <v>4.8954942276315888E-2</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" ref="I35" si="23">(I34-H34)/H34</f>
+        <f t="shared" ref="I35:J35" si="23">(I34-H34)/H34</f>
         <v>3.8635056835773361E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="J35" s="20">
+        <f t="shared" si="23"/>
+        <v>4.4528194754959366E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4405,7 +4671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4434,7 +4700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4463,7 +4729,7 @@
         <v>1013210000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4492,7 +4758,7 @@
         <v>718129000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4521,7 +4787,7 @@
         <v>1731339000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4549,8 +4815,11 @@
       <c r="I41" s="1">
         <v>399745000</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4579,7 +4848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4608,7 +4877,7 @@
         <v>125563000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4637,7 +4906,7 @@
         <v>2256647000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4666,7 +4935,7 @@
         <v>232990000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4695,7 +4964,7 @@
         <v>78547000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4724,7 +4993,7 @@
         <v>31819000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -5755,7 +6024,7 @@
         <v>-143336000</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5783,12 +6052,8 @@
       <c r="I83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P83" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q83" s="68"/>
-    </row>
-    <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5816,12 +6081,18 @@
       <c r="I84" s="1">
         <v>14358000</v>
       </c>
-      <c r="P84" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q84" s="69"/>
-    </row>
-    <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q84" s="76"/>
+    </row>
+    <row r="85" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5849,13 +6120,16 @@
       <c r="I85" s="1">
         <v>251002000</v>
       </c>
-      <c r="P85" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q85" s="46">
-        <f>I17</f>
-        <v>53796000</v>
-      </c>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q85" s="77"/>
     </row>
     <row r="86" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5885,12 +6159,18 @@
       <c r="I86" s="1">
         <v>156273000</v>
       </c>
-      <c r="P86" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q86" s="46">
-        <f>I56</f>
-        <v>26100000</v>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q86" s="47">
+        <f>I17</f>
+        <v>53796000</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5921,12 +6201,18 @@
       <c r="I87" s="10">
         <v>321912000</v>
       </c>
-      <c r="P87" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q87" s="46">
-        <f>I61</f>
-        <v>1019622000</v>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q87" s="47">
+        <f>I56</f>
+        <v>26100000</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -5957,12 +6243,18 @@
       <c r="I88" s="1">
         <v>-69296000</v>
       </c>
-      <c r="P88" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q88" s="48">
-        <f>Q85/(Q86+Q87)</f>
-        <v>5.1443882791028593E-2</v>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q88" s="47">
+        <f>I61</f>
+        <v>1019622000</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6001,18 +6293,18 @@
         <f t="shared" ref="I89" si="29">(-1*I88)/I3</f>
         <v>6.3519184267598949E-2</v>
       </c>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q89" s="46">
-        <f>I27</f>
-        <v>6648000</v>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q89" s="48">
+        <f>Q86/(Q87+Q88)</f>
+        <v>5.1443882791028593E-2</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6043,12 +6335,18 @@
       <c r="I90" s="1">
         <v>-25287000</v>
       </c>
-      <c r="P90" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q90" s="46">
-        <f>I25</f>
-        <v>-383630000</v>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q90" s="47">
+        <f>I27</f>
+        <v>6648000</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6079,12 +6377,18 @@
       <c r="I91" s="1">
         <v>-844944000</v>
       </c>
-      <c r="P91" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q91" s="48">
-        <f>Q89/Q90</f>
-        <v>-1.7329197403748404E-2</v>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q91" s="47">
+        <f>I25</f>
+        <v>-383630000</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6115,15 +6419,21 @@
       <c r="I92" s="1">
         <v>1334874000</v>
       </c>
-      <c r="P92" s="47" t="s">
-        <v>127</v>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="Q92" s="48">
-        <f>Q88*(1-Q91)</f>
-        <v>5.2335363991129619E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <f>Q90/Q91</f>
+        <v>-1.7329197403748404E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -6151,12 +6461,21 @@
       <c r="I93" s="1">
         <v>-21284000</v>
       </c>
-      <c r="P93" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q93" s="70"/>
-    </row>
-    <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="J93" s="46"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q93" s="48">
+        <f>Q89*(1-Q92)</f>
+        <v>5.2335363991129619E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -6184,13 +6503,16 @@
       <c r="I94" s="10">
         <v>374063000</v>
       </c>
-      <c r="P94" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q94" s="49">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+      <c r="P94" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q94" s="77"/>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -6220,12 +6542,18 @@
       <c r="I95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P95" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q95" s="50" cm="1">
-        <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>0.85470000000000002</v>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q95" s="71">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6256,11 +6584,18 @@
       <c r="I96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P96" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q96" s="49">
-        <v>8.4000000000000005E-2</v>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q96" s="51" cm="1">
+        <f t="array" ref="Q96">_FV(A1,"Beta")</f>
+        <v>0.80549999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6291,15 +6626,20 @@
       <c r="I97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P97" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q97" s="48">
-        <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>7.7478935999999998E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q97" s="50">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -6327,12 +6667,21 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q98" s="70"/>
-    </row>
-    <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+      <c r="P98" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q98" s="48">
+        <f>(Q95)+((Q96)*(Q97-Q95))</f>
+        <v>7.7196390000000004E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -6360,13 +6709,16 @@
       <c r="I99" s="1">
         <v>41337000</v>
       </c>
-      <c r="P99" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q99" s="46">
-        <f>Q86+Q87</f>
-        <v>1045722000</v>
-      </c>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q99" s="77"/>
     </row>
     <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6396,12 +6748,18 @@
       <c r="I100" s="10">
         <v>41337000</v>
       </c>
-      <c r="P100" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q100" s="48">
-        <f>Q99/Q103</f>
-        <v>4.4142857130989317E-2</v>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q100" s="47">
+        <f>Q87+Q88</f>
+        <v>1045722000</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6432,12 +6790,18 @@
       <c r="I101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P101" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q101" s="51" cm="1">
-        <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22643773152</v>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q101" s="48">
+        <f>Q100/Q104</f>
+        <v>4.0332463307262631E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6468,12 +6832,18 @@
       <c r="I102" s="10">
         <v>737312000</v>
       </c>
-      <c r="P102" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q102" s="48">
-        <f>Q101/Q103</f>
-        <v>0.95585714286901069</v>
+      <c r="J102" s="46"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q102" s="52" cm="1">
+        <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
+        <v>24881829016</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6504,15 +6874,21 @@
       <c r="I103" s="1">
         <v>275898000</v>
       </c>
-      <c r="P103" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q103" s="52">
-        <f>Q99+Q101</f>
-        <v>23689495152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q103" s="48">
+        <f>Q102/Q104</f>
+        <v>0.95966753669273741</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -6540,12 +6916,23 @@
       <c r="I104" s="11">
         <v>1013210000</v>
       </c>
-      <c r="P104" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q104" s="69"/>
-    </row>
-    <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J104" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="79"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="46"/>
+      <c r="P104" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q104" s="53">
+        <f>Q100+Q102</f>
+        <v>25927551016</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>159</v>
       </c>
@@ -6577,98 +6964,101 @@
         <f>(I22*(1-0.2))+I77+I88+I81</f>
         <v>-184322200</v>
       </c>
-      <c r="J105" s="23">
-        <f>I105*(1+$Q$106)</f>
-        <v>-240083200.10714072</v>
-      </c>
-      <c r="K105" s="23">
-        <f t="shared" ref="K105:N105" si="31">J105*(1+$Q$106)</f>
-        <v>-312712972.03313208</v>
-      </c>
-      <c r="L105" s="23">
-        <f t="shared" si="31"/>
-        <v>-407314642.73282951</v>
-      </c>
-      <c r="M105" s="23">
-        <f t="shared" si="31"/>
-        <v>-530535132.92373055</v>
-      </c>
-      <c r="N105" s="23">
-        <f t="shared" si="31"/>
-        <v>-691032184.30333686</v>
-      </c>
-      <c r="O105" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="P105" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q105" s="54">
-        <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>7.6369026893049696E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="J105" s="72">
+        <f>J107/J3</f>
+        <v>0.21984924623115579</v>
+      </c>
+      <c r="K105" s="72">
+        <f>K107/K3</f>
+        <v>0.18103870651641352</v>
+      </c>
+      <c r="L105" s="72">
+        <f>L107/L3</f>
+        <v>0.18989547038327526</v>
+      </c>
+      <c r="M105" s="72">
+        <f>M107/M3</f>
+        <v>0.22139135764633772</v>
+      </c>
+      <c r="N105" s="72">
+        <f>N107/N3</f>
+        <v>0.25801677355698077</v>
+      </c>
+      <c r="O105" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q105" s="77"/>
+    </row>
+    <row r="106" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:I106" si="32">(C107/B107)-1</f>
+        <f t="shared" ref="C106:I106" si="31">(C107/B107)-1</f>
         <v>0.81921073717948723</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-0.21857622639431817</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-1.1505671810047207</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>12.039307440336922</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-1.2811771038937714E-2</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4.2254980369347095</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.6093444550343321</v>
       </c>
-      <c r="J106" s="40">
-        <v>350000000</v>
-      </c>
-      <c r="K106" s="40">
-        <v>369500000</v>
-      </c>
-      <c r="L106" s="40">
-        <v>490500000</v>
-      </c>
-      <c r="M106" s="40">
-        <v>722400000</v>
-      </c>
-      <c r="N106" s="40">
-        <v>1046000000</v>
-      </c>
-      <c r="O106" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="P106" s="55" t="s">
-        <v>139</v>
+      <c r="J106" s="55">
+        <f>(J107/I105)-1</f>
+        <v>-2.8988488635660818</v>
+      </c>
+      <c r="K106" s="55">
+        <f>(K107/J107)-1</f>
+        <v>5.5714285714285605E-2</v>
+      </c>
+      <c r="L106" s="55">
+        <f>(L107/K107)-1</f>
+        <v>0.32746955345060891</v>
+      </c>
+      <c r="M106" s="55">
+        <f>(M107/L107)-1</f>
+        <v>0.47278287461773694</v>
+      </c>
+      <c r="N106" s="55">
+        <f>(N107/M107)-1</f>
+        <v>0.44795127353266895</v>
+      </c>
+      <c r="O106" s="69">
+        <f>SUM(J106:N106)/5</f>
+        <v>-0.31898617525015627</v>
+      </c>
+      <c r="P106" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="Q106" s="56">
-        <f>(SUM(J4:N4)/5)</f>
-        <v>0.30251917624214952</v>
+        <f>(Q101*Q93)+(Q103*Q98)</f>
+        <v>7.6193683580716348E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="37" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -6695,151 +7085,239 @@
       <c r="I107" s="1">
         <v>231332000</v>
       </c>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="41">
-        <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>20871526381.689419</v>
-      </c>
-      <c r="O107" s="25" t="s">
+      <c r="J107" s="57">
+        <v>350000000</v>
+      </c>
+      <c r="K107" s="57">
+        <v>369500000</v>
+      </c>
+      <c r="L107" s="57">
+        <v>490500000</v>
+      </c>
+      <c r="M107" s="57">
+        <v>722400000</v>
+      </c>
+      <c r="N107" s="57">
+        <v>1046000000</v>
+      </c>
+      <c r="O107" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="P107" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q107" s="43">
+        <f>(SUM(J4:N4)/5)</f>
+        <v>0.30250999354806429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="59">
+        <f>N107*(1+Q108)/(Q109-Q108)</f>
+        <v>20943013376.045822</v>
+      </c>
+      <c r="O108" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="P107" s="57" t="s">
+      <c r="P108" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="Q107" s="58">
+      <c r="Q108" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="41">
-        <f t="shared" ref="J108:M108" si="33">J107+J106</f>
+    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="J109" s="59">
+        <f>J108+J107</f>
         <v>350000000</v>
       </c>
-      <c r="K108" s="41">
-        <f t="shared" si="33"/>
+      <c r="K109" s="59">
+        <f>K108+K107</f>
         <v>369500000</v>
       </c>
-      <c r="L108" s="41">
-        <f t="shared" si="33"/>
+      <c r="L109" s="59">
+        <f>L108+L107</f>
         <v>490500000</v>
       </c>
-      <c r="M108" s="41">
-        <f t="shared" si="33"/>
+      <c r="M109" s="59">
+        <f>M108+M107</f>
         <v>722400000</v>
       </c>
-      <c r="N108" s="41">
-        <f>N107+N106</f>
-        <v>21917526381.689419</v>
-      </c>
-      <c r="O108" s="25" t="s">
+      <c r="N109" s="59">
+        <f>N108+N107</f>
+        <v>21989013376.045822</v>
+      </c>
+      <c r="O109" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="P108" s="59" t="s">
+      <c r="P109" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="Q108" s="56">
-        <f>Q105</f>
-        <v>7.6369026893049696E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="66" t="s">
+      <c r="Q109" s="43">
+        <f>Q106</f>
+        <v>7.6193683580716348E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="J110" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="K109" s="66"/>
-    </row>
-    <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="60" t="s">
+      <c r="K110" s="78"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+    </row>
+    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J111" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="K110" s="51">
-        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>16745609948.137224</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="60" t="s">
+      <c r="K111" s="52">
+        <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
+        <v>16808191519.770399</v>
+      </c>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="46"/>
+    </row>
+    <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J112" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="K111" s="51">
+      <c r="K112" s="52">
         <f>I40</f>
         <v>1731339000</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="60" t="s">
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="46"/>
+    </row>
+    <row r="113" spans="10:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J113" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="K112" s="51">
-        <f>Q99</f>
+      <c r="K113" s="52">
+        <f>Q100</f>
         <v>1045722000</v>
       </c>
-    </row>
-    <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="60" t="s">
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="46"/>
+    </row>
+    <row r="114" spans="10:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="K113" s="51">
-        <f>K110+K111-K112</f>
-        <v>17431226948.137222</v>
-      </c>
-    </row>
-    <row r="114" spans="10:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J114" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="K114" s="60">
+      <c r="K114" s="52">
+        <f>K111+K112-K113</f>
+        <v>17493808519.770401</v>
+      </c>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="46"/>
+    </row>
+    <row r="115" spans="10:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J115" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="K115" s="63">
         <f>I34*(1+(O16*5))</f>
         <v>172403932.42960474</v>
       </c>
-    </row>
-    <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="61" t="s">
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="46"/>
+    </row>
+    <row r="116" spans="10:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J116" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="K115" s="62">
-        <f>K113/K114</f>
-        <v>101.10689879567956</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="60" t="s">
+      <c r="K116" s="65">
+        <f>K114/K115</f>
+        <v>101.46989267146445</v>
+      </c>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="46"/>
+    </row>
+    <row r="117" spans="10:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J117" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="K116" s="63" cm="1">
-        <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>155.21</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="61" t="s">
+      <c r="K117" s="66" cm="1">
+        <f t="array" ref="K117">_FV(A1,"Price")</f>
+        <v>169.07</v>
+      </c>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="46"/>
+    </row>
+    <row r="118" spans="10:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J118" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="K117" s="64">
-        <f>K115/K116-1</f>
-        <v>-0.34857999616210589</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="61" t="s">
+      <c r="K118" s="67">
+        <f>K116/K117-1</f>
+        <v>-0.39983502294041251</v>
+      </c>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="46"/>
+    </row>
+    <row r="119" spans="10:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="J119" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="K118" s="65" t="str">
-        <f>IF(K115&gt;K116,"BUY","SELL")</f>
+      <c r="K119" s="68" t="str">
+        <f>IF(K116&gt;K117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="P83:Q83"/>
+  <mergeCells count="7">
     <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P94:Q94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ZS" display="ROIC.AI | ZS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6860,7 +7338,7 @@
     <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1713683/000171368322000081/0001713683-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1713683/000171368322000081/0001713683-22-000081-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="J1" r:id="rId18" display="https://finbox.com/NASDAQGS:ZS/explorer/revenue_proj" xr:uid="{15CF3C49-908E-6442-BA91-E8CF79CB3CE5}"/>
-    <hyperlink ref="O106" r:id="rId19" xr:uid="{2B5F2010-5329-AC45-8B3D-4745A251AD68}"/>
+    <hyperlink ref="O107" r:id="rId19" xr:uid="{2B5F2010-5329-AC45-8B3D-4745A251AD68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId20"/>

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8FA94-6B30-AE4D-9466-CAE42FC55C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A2033-0187-B54B-828D-BF912AD9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,9 +540,6 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>Share Dilution (3yr)</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
     <t>5Y Fwd FCF CAGR</t>
   </si>
   <si>
-    <t>Shares (4% Dilution)</t>
-  </si>
-  <si>
     <t>Forward FCF Yield</t>
   </si>
   <si>
@@ -580,6 +574,12 @@
   </si>
   <si>
     <t>ss</t>
+  </si>
+  <si>
+    <t>Share Dilution (4yr)</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
   </si>
 </sst>
 </file>
@@ -2382,13 +2382,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2404,14 +2406,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2421,6 +2423,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2548,11 +2552,11 @@
     <v>Powered by Refinitiv</v>
     <v>177.69</v>
     <v>84.93</v>
-    <v>0.80549999999999999</v>
-    <v>-1.33</v>
-    <v>-7.8049999999999994E-3</v>
-    <v>-0.22</v>
-    <v>-1.3009999999999999E-3</v>
+    <v>0.80800000000000005</v>
+    <v>-0.24</v>
+    <v>-1.552E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Zscaler, Inc. is a cloud security company, which has developed a platform incorporating core security functionalities needed to enable access to cloud resources based on identity, context and organization’s policies. The Company’s solution is a purpose-built, multi-tenant, distributed cloud platform that incorporates the security functionality needed to enable users, applications and devices to utilize authorized applications and services based on an organization’s business policies. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. The Company’s cloud-native platform, the Zscaler Zero Trust Exchange, enables customers to secure and connect users, workloads and Internet of things (IoT)/ operational technology (OT) devices across three core products, Zscaler for Users, Zscaler for Workloads and Zscaler for IoT/OT.</v>
     <v>5962</v>
@@ -2560,24 +2564,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>177.69</v>
+    <v>157.08590000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999968633594</v>
+    <v>45226.996349339846</v>
     <v>0</v>
-    <v>168.49</v>
-    <v>24881829016</v>
+    <v>153.88499999999999</v>
+    <v>22718440000</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>175.01</v>
-    <v>170.4</v>
-    <v>169.07</v>
-    <v>168.85</v>
+    <v>156.24</v>
+    <v>154.61000000000001</v>
+    <v>154.37</v>
+    <v>154.37</v>
     <v>147168800</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>1903757</v>
-    <v>1630899</v>
+    <v>1089699</v>
+    <v>1674628</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2739,9 +2743,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3161,10 +3165,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3829,7 +3833,7 @@
         <v>1176093000</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>151</v>
@@ -3870,20 +3874,20 @@
         <v>1418375000</v>
       </c>
       <c r="O16" s="18">
-        <f>(I35+H35+G35)/3</f>
-        <v>4.4726828389374695E-2</v>
+        <f>AVERAGE(G35:J35)</f>
+        <v>4.4677169980770863E-2</v>
       </c>
       <c r="P16" s="35">
         <f>Q102/I3</f>
-        <v>22.807571608493912</v>
+        <v>20.824532103330505</v>
       </c>
       <c r="Q16" s="35">
         <f>Q102/I28</f>
-        <v>-63.754116337585003</v>
+        <v>-58.210916321186438</v>
       </c>
       <c r="R16" s="36">
         <f>Q102/I107</f>
-        <v>107.5589586222399</v>
+        <v>98.207079003337199</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3947,13 +3951,13 @@
         <v>154</v>
       </c>
       <c r="P18" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="R18" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="R18" s="24" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4005,15 +4009,15 @@
       </c>
       <c r="P19" s="35">
         <f>Q102/J3</f>
-        <v>15.629289582914573</v>
+        <v>14.270376884422111</v>
       </c>
       <c r="Q19" s="35">
         <f>Q102/J28</f>
-        <v>98.191906140489351</v>
+        <v>89.654459352801894</v>
       </c>
       <c r="R19" s="36">
         <f>Q102/J107</f>
-        <v>71.090940045714291</v>
+        <v>64.909828571428577</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,13 +4125,13 @@
         <v>0.31080414405525408</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4168,7 +4172,7 @@
       </c>
       <c r="R22" s="39">
         <f>J107/Q102</f>
-        <v>1.4066490038772316E-2</v>
+        <v>1.5405987382936505E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4816,7 +4820,7 @@
         <v>399745000</v>
       </c>
       <c r="M41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -6553,7 +6557,7 @@
       </c>
       <c r="Q95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6595,7 +6599,7 @@
       </c>
       <c r="Q96" s="51" cm="1">
         <f t="array" ref="Q96">_FV(A1,"Beta")</f>
-        <v>0.80549999999999999</v>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6678,7 +6682,7 @@
       </c>
       <c r="Q98" s="48">
         <f>(Q95)+((Q96)*(Q97-Q95))</f>
-        <v>7.7196390000000004E-2</v>
+        <v>7.7174400000000004E-2</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6801,7 +6805,7 @@
       </c>
       <c r="Q101" s="48">
         <f>Q100/Q104</f>
-        <v>4.0332463307262631E-2</v>
+        <v>4.4004160550664487E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6843,7 +6847,7 @@
       </c>
       <c r="Q102" s="52" cm="1">
         <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
-        <v>24881829016</v>
+        <v>22718440000</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6885,7 +6889,7 @@
       </c>
       <c r="Q103" s="48">
         <f>Q102/Q104</f>
-        <v>0.95966753669273741</v>
+        <v>0.95599583944933553</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6929,12 +6933,12 @@
       </c>
       <c r="Q104" s="53">
         <f>Q100+Q102</f>
-        <v>25927551016</v>
+        <v>23764162000</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" s="1">
         <f t="shared" ref="C105:H105" si="30">(C22*(1-0.2))+C77+C88+C81</f>
@@ -6985,7 +6989,7 @@
         <v>0.25801677355698077</v>
       </c>
       <c r="O105" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P105" s="77" t="s">
         <v>137</v>
@@ -6994,7 +6998,7 @@
     </row>
     <row r="106" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
@@ -7054,12 +7058,12 @@
       </c>
       <c r="Q106" s="56">
         <f>(Q101*Q93)+(Q103*Q98)</f>
-        <v>7.6193683580716348E-2</v>
+        <v>7.6081379071541944E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="1">
         <v>-9984000</v>
@@ -7101,7 +7105,7 @@
         <v>1046000000</v>
       </c>
       <c r="O107" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P107" s="58" t="s">
         <v>139</v>
@@ -7118,7 +7122,7 @@
       <c r="M108" s="74"/>
       <c r="N108" s="59">
         <f>N107*(1+Q108)/(Q109-Q108)</f>
-        <v>20943013376.045822</v>
+        <v>20989057450.82571</v>
       </c>
       <c r="O108" s="60" t="s">
         <v>140</v>
@@ -7149,7 +7153,7 @@
       </c>
       <c r="N109" s="59">
         <f>N108+N107</f>
-        <v>21989013376.045822</v>
+        <v>22035057450.82571</v>
       </c>
       <c r="O109" s="60" t="s">
         <v>136</v>
@@ -7159,7 +7163,7 @@
       </c>
       <c r="Q109" s="43">
         <f>Q106</f>
-        <v>7.6193683580716348E-2</v>
+        <v>7.6081379071541944E-2</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
@@ -7180,7 +7184,7 @@
       </c>
       <c r="K111" s="52">
         <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
-        <v>16808191519.770399</v>
+        <v>16848501683.087963</v>
       </c>
       <c r="L111" s="46"/>
       <c r="M111" s="46"/>
@@ -7225,7 +7229,7 @@
       </c>
       <c r="K114" s="52">
         <f>K111+K112-K113</f>
-        <v>17493808519.770401</v>
+        <v>17534118683.087963</v>
       </c>
       <c r="L114" s="46"/>
       <c r="M114" s="46"/>
@@ -7236,11 +7240,11 @@
     </row>
     <row r="115" spans="10:17" ht="20" x14ac:dyDescent="0.2">
       <c r="J115" s="63" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K115" s="63">
         <f>I34*(1+(O16*5))</f>
-        <v>172403932.42960474</v>
+        <v>172368949.32220355</v>
       </c>
       <c r="L115" s="46"/>
       <c r="M115" s="46"/>
@@ -7255,7 +7259,7 @@
       </c>
       <c r="K116" s="65">
         <f>K114/K115</f>
-        <v>101.46989267146445</v>
+        <v>101.7243462470263</v>
       </c>
       <c r="L116" s="46"/>
       <c r="M116" s="46"/>
@@ -7270,7 +7274,7 @@
       </c>
       <c r="K117" s="66" cm="1">
         <f t="array" ref="K117">_FV(A1,"Price")</f>
-        <v>169.07</v>
+        <v>154.37</v>
       </c>
       <c r="L117" s="46"/>
       <c r="M117" s="46"/>
@@ -7285,7 +7289,7 @@
       </c>
       <c r="K118" s="67">
         <f>K116/K117-1</f>
-        <v>-0.39983502294041251</v>
+        <v>-0.34103552343702592</v>
       </c>
       <c r="L118" s="46"/>
       <c r="M118" s="46"/>

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A2033-0187-B54B-828D-BF912AD9BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A9BA6-BEBA-A04C-AC39-92822AB635B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1066,6 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2387,13 +2388,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2410,7 +2408,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2422,9 +2420,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2552,11 +2547,11 @@
     <v>Powered by Refinitiv</v>
     <v>177.69</v>
     <v>84.93</v>
-    <v>0.80800000000000005</v>
-    <v>-0.24</v>
-    <v>-1.552E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.79869999999999997</v>
+    <v>5.18</v>
+    <v>3.2539999999999999E-2</v>
+    <v>0.13</v>
+    <v>7.9089999999999998E-4</v>
     <v>USD</v>
     <v>Zscaler, Inc. is a cloud security company, which has developed a platform incorporating core security functionalities needed to enable access to cloud resources based on identity, context and organization’s policies. The Company’s solution is a purpose-built, multi-tenant, distributed cloud platform that incorporates the security functionality needed to enable users, applications and devices to utilize authorized applications and services based on an organization’s business policies. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. The Company’s cloud-native platform, the Zscaler Zero Trust Exchange, enables customers to secure and connect users, workloads and Internet of things (IoT)/ operational technology (OT) devices across three core products, Zscaler for Users, Zscaler for Workloads and Zscaler for IoT/OT.</v>
     <v>5962</v>
@@ -2564,24 +2559,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>157.08590000000001</v>
+    <v>166.09</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.996349339846</v>
+    <v>45233.999693772654</v>
     <v>0</v>
-    <v>153.88499999999999</v>
-    <v>22718440000</v>
+    <v>155.51</v>
+    <v>24190130000</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>156.24</v>
-    <v>154.61000000000001</v>
-    <v>154.37</v>
-    <v>154.37</v>
+    <v>158.44</v>
+    <v>159.19</v>
+    <v>164.37</v>
+    <v>164.5</v>
     <v>147168800</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>1089699</v>
-    <v>1674628</v>
+    <v>2640773</v>
+    <v>1684870</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2743,9 +2738,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3165,10 +3160,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3327,31 +3322,31 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="75">
         <f>(C3/B3)-1</f>
         <v>0.49561509672854553</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="75">
         <f>(D3/C3)-1</f>
         <v>0.56510426392779345</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="75">
         <f>(E3/D3)-1</f>
         <v>0.51271506637924857</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="75">
         <f t="shared" ref="F4:N4" si="0">(F3/E3)-1</f>
         <v>0.59241536697971342</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="75">
         <f t="shared" si="0"/>
         <v>0.42410083345441096</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="75">
         <f t="shared" si="0"/>
         <v>0.56074283104048739</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="75">
         <f t="shared" si="0"/>
         <v>0.6207784875947111</v>
       </c>
@@ -3879,15 +3874,15 @@
       </c>
       <c r="P16" s="35">
         <f>Q102/I3</f>
-        <v>20.824532103330505</v>
+        <v>22.173535628711228</v>
       </c>
       <c r="Q16" s="35">
         <f>Q102/I28</f>
-        <v>-58.210916321186438</v>
+        <v>-61.981792465883295</v>
       </c>
       <c r="R16" s="36">
         <f>Q102/I107</f>
-        <v>98.207079003337199</v>
+        <v>104.56888800511818</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4009,15 +4004,15 @@
       </c>
       <c r="P19" s="35">
         <f>Q102/J3</f>
-        <v>14.270376884422111</v>
+        <v>15.19480527638191</v>
       </c>
       <c r="Q19" s="35">
         <f>Q102/J28</f>
-        <v>89.654459352801894</v>
+        <v>95.462233622730864</v>
       </c>
       <c r="R19" s="36">
         <f>Q102/J107</f>
-        <v>64.909828571428577</v>
+        <v>69.114657142857141</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,7 +4167,7 @@
       </c>
       <c r="R22" s="39">
         <f>J107/Q102</f>
-        <v>1.5405987382936505E-2</v>
+        <v>1.4468710999072763E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6091,10 +6086,10 @@
       <c r="M84" s="46"/>
       <c r="N84" s="46"/>
       <c r="O84" s="46"/>
-      <c r="P84" s="75" t="s">
+      <c r="P84" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="Q84" s="76"/>
+      <c r="Q84" s="77"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6130,10 +6125,10 @@
       <c r="M85" s="46"/>
       <c r="N85" s="46"/>
       <c r="O85" s="46"/>
-      <c r="P85" s="77" t="s">
+      <c r="P85" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="Q85" s="77"/>
+      <c r="Q85" s="78"/>
     </row>
     <row r="86" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -6513,10 +6508,10 @@
       <c r="M94" s="46"/>
       <c r="N94" s="46"/>
       <c r="O94" s="46"/>
-      <c r="P94" s="77" t="s">
+      <c r="P94" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="Q94" s="77"/>
+      <c r="Q94" s="78"/>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -6557,7 +6552,7 @@
       </c>
       <c r="Q95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6599,7 +6594,7 @@
       </c>
       <c r="Q96" s="51" cm="1">
         <f t="array" ref="Q96">_FV(A1,"Beta")</f>
-        <v>0.80800000000000005</v>
+        <v>0.79869999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6682,7 +6677,7 @@
       </c>
       <c r="Q98" s="48">
         <f>(Q95)+((Q96)*(Q97-Q95))</f>
-        <v>7.7174400000000004E-2</v>
+        <v>7.6489497000000004E-2</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6719,10 +6714,10 @@
       <c r="M99" s="46"/>
       <c r="N99" s="46"/>
       <c r="O99" s="46"/>
-      <c r="P99" s="77" t="s">
+      <c r="P99" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="Q99" s="77"/>
+      <c r="Q99" s="78"/>
     </row>
     <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6805,7 +6800,7 @@
       </c>
       <c r="Q101" s="48">
         <f>Q100/Q104</f>
-        <v>4.4004160550664487E-2</v>
+        <v>4.1437951054713748E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6847,7 +6842,7 @@
       </c>
       <c r="Q102" s="52" cm="1">
         <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
-        <v>22718440000</v>
+        <v>24190130000</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6889,7 +6884,7 @@
       </c>
       <c r="Q103" s="48">
         <f>Q102/Q104</f>
-        <v>0.95599583944933553</v>
+        <v>0.95856204894528629</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6920,20 +6915,20 @@
       <c r="I104" s="11">
         <v>1013210000</v>
       </c>
-      <c r="J104" s="79" t="s">
+      <c r="J104" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="K104" s="79"/>
-      <c r="L104" s="79"/>
-      <c r="M104" s="79"/>
-      <c r="N104" s="79"/>
+      <c r="K104" s="80"/>
+      <c r="L104" s="80"/>
+      <c r="M104" s="80"/>
+      <c r="N104" s="80"/>
       <c r="O104" s="46"/>
       <c r="P104" s="41" t="s">
         <v>136</v>
       </c>
       <c r="Q104" s="53">
         <f>Q100+Q102</f>
-        <v>23764162000</v>
+        <v>25235852000</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6991,10 +6986,10 @@
       <c r="O105" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="P105" s="77" t="s">
+      <c r="P105" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="Q105" s="77"/>
+      <c r="Q105" s="78"/>
     </row>
     <row r="106" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -7058,7 +7053,7 @@
       </c>
       <c r="Q106" s="56">
         <f>(Q101*Q93)+(Q103*Q98)</f>
-        <v>7.6081379071541944E-2</v>
+        <v>7.5488599218609384E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7122,7 +7117,7 @@
       <c r="M108" s="74"/>
       <c r="N108" s="59">
         <f>N107*(1+Q108)/(Q109-Q108)</f>
-        <v>20989057450.82571</v>
+        <v>21235487151.420525</v>
       </c>
       <c r="O108" s="60" t="s">
         <v>140</v>
@@ -7153,7 +7148,7 @@
       </c>
       <c r="N109" s="59">
         <f>N108+N107</f>
-        <v>22035057450.82571</v>
+        <v>22281487151.420525</v>
       </c>
       <c r="O109" s="60" t="s">
         <v>136</v>
@@ -7163,14 +7158,14 @@
       </c>
       <c r="Q109" s="43">
         <f>Q106</f>
-        <v>7.6081379071541944E-2</v>
+        <v>7.5488599218609384E-2</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="J110" s="78" t="s">
+      <c r="J110" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="K110" s="78"/>
+      <c r="K110" s="79"/>
       <c r="L110" s="46"/>
       <c r="M110" s="46"/>
       <c r="N110" s="46"/>
@@ -7184,7 +7179,7 @@
       </c>
       <c r="K111" s="52">
         <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
-        <v>16848501683.087963</v>
+        <v>17064269278.308535</v>
       </c>
       <c r="L111" s="46"/>
       <c r="M111" s="46"/>
@@ -7229,7 +7224,7 @@
       </c>
       <c r="K114" s="52">
         <f>K111+K112-K113</f>
-        <v>17534118683.087963</v>
+        <v>17749886278.308533</v>
       </c>
       <c r="L114" s="46"/>
       <c r="M114" s="46"/>
@@ -7259,7 +7254,7 @@
       </c>
       <c r="K116" s="65">
         <f>K114/K115</f>
-        <v>101.7243462470263</v>
+        <v>102.97612387907094</v>
       </c>
       <c r="L116" s="46"/>
       <c r="M116" s="46"/>
@@ -7274,7 +7269,7 @@
       </c>
       <c r="K117" s="66" cm="1">
         <f t="array" ref="K117">_FV(A1,"Price")</f>
-        <v>154.37</v>
+        <v>164.37</v>
       </c>
       <c r="L117" s="46"/>
       <c r="M117" s="46"/>
@@ -7289,7 +7284,7 @@
       </c>
       <c r="K118" s="67">
         <f>K116/K117-1</f>
-        <v>-0.34103552343702592</v>
+        <v>-0.37351022766276731</v>
       </c>
       <c r="L118" s="46"/>
       <c r="M118" s="46"/>

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A9BA6-BEBA-A04C-AC39-92822AB635B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78CA5F0-18DF-044C-AF24-FCDB97F49256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2408,7 +2408,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2547,11 +2547,11 @@
     <v>Powered by Refinitiv</v>
     <v>177.69</v>
     <v>84.93</v>
-    <v>0.79869999999999997</v>
-    <v>5.18</v>
-    <v>3.2539999999999999E-2</v>
-    <v>0.13</v>
-    <v>7.9089999999999998E-4</v>
+    <v>0.8095</v>
+    <v>-3.26</v>
+    <v>-1.874E-2</v>
+    <v>-0.01</v>
+    <v>-5.8580000000000005E-5</v>
     <v>USD</v>
     <v>Zscaler, Inc. is a cloud security company, which has developed a platform incorporating core security functionalities needed to enable access to cloud resources based on identity, context and organization’s policies. The Company’s solution is a purpose-built, multi-tenant, distributed cloud platform that incorporates the security functionality needed to enable users, applications and devices to utilize authorized applications and services based on an organization’s business policies. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. The Company’s cloud-native platform, the Zscaler Zero Trust Exchange, enables customers to secure and connect users, workloads and Internet of things (IoT)/ operational technology (OT) devices across three core products, Zscaler for Users, Zscaler for Workloads and Zscaler for IoT/OT.</v>
     <v>5962</v>
@@ -2559,24 +2559,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>166.09</v>
+    <v>176.16</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.999693772654</v>
+    <v>45239.967929397659</v>
     <v>0</v>
-    <v>155.51</v>
-    <v>24190130000</v>
+    <v>170.40539999999999</v>
+    <v>25121714160</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>158.44</v>
-    <v>159.19</v>
-    <v>164.37</v>
-    <v>164.5</v>
+    <v>174.77</v>
+    <v>173.96</v>
+    <v>170.7</v>
+    <v>170.69</v>
     <v>147168800</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>2640773</v>
-    <v>1684870</v>
+    <v>1430541</v>
+    <v>1663088</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2738,9 +2738,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3160,10 +3160,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G119" sqref="G119"/>
+      <selection pane="bottomRight" activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3874,15 +3874,15 @@
       </c>
       <c r="P16" s="35">
         <f>Q102/I3</f>
-        <v>22.173535628711228</v>
+        <v>23.027458884307748</v>
       </c>
       <c r="Q16" s="35">
         <f>Q102/I28</f>
-        <v>-61.981792465883295</v>
+        <v>-64.368768313868571</v>
       </c>
       <c r="R16" s="36">
         <f>Q102/I107</f>
-        <v>104.56888800511818</v>
+        <v>108.59593208030017</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4004,15 +4004,15 @@
       </c>
       <c r="P19" s="35">
         <f>Q102/J3</f>
-        <v>15.19480527638191</v>
+        <v>15.779971206030151</v>
       </c>
       <c r="Q19" s="35">
         <f>Q102/J28</f>
-        <v>95.462233622730864</v>
+        <v>99.138572059984213</v>
       </c>
       <c r="R19" s="36">
         <f>Q102/J107</f>
-        <v>69.114657142857141</v>
+        <v>71.776326171428565</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="R22" s="39">
         <f>J107/Q102</f>
-        <v>1.4468710999072763E-2</v>
+        <v>1.3932170303779939E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="Q95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="Q96" s="51" cm="1">
         <f t="array" ref="Q96">_FV(A1,"Beta")</f>
-        <v>0.79869999999999997</v>
+        <v>0.8095</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="Q98" s="48">
         <f>(Q95)+((Q96)*(Q97-Q95))</f>
-        <v>7.6489497000000004E-2</v>
+        <v>7.6705755E-2</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="Q101" s="48">
         <f>Q100/Q104</f>
-        <v>4.1437951054713748E-2</v>
+        <v>3.9962722889853038E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="Q102" s="52" cm="1">
         <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
-        <v>24190130000</v>
+        <v>25121714160</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="Q103" s="48">
         <f>Q102/Q104</f>
-        <v>0.95856204894528629</v>
+        <v>0.96003727711014697</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="Q104" s="53">
         <f>Q100+Q102</f>
-        <v>25235852000</v>
+        <v>26167436160</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="Q106" s="56">
         <f>(Q101*Q93)+(Q103*Q98)</f>
-        <v>7.5488599218609384E-2</v>
+        <v>7.5731847817395143E-2</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7117,7 +7117,7 @@
       <c r="M108" s="74"/>
       <c r="N108" s="59">
         <f>N107*(1+Q108)/(Q109-Q108)</f>
-        <v>21235487151.420525</v>
+        <v>21133667432.322006</v>
       </c>
       <c r="O108" s="60" t="s">
         <v>140</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="N109" s="59">
         <f>N108+N107</f>
-        <v>22281487151.420525</v>
+        <v>22179667432.322006</v>
       </c>
       <c r="O109" s="60" t="s">
         <v>136</v>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="Q109" s="43">
         <f>Q106</f>
-        <v>7.5488599218609384E-2</v>
+        <v>7.5731847817395143E-2</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="K111" s="52">
         <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
-        <v>17064269278.308535</v>
+        <v>16975113244.128117</v>
       </c>
       <c r="L111" s="46"/>
       <c r="M111" s="46"/>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="K114" s="52">
         <f>K111+K112-K113</f>
-        <v>17749886278.308533</v>
+        <v>17660730244.128117</v>
       </c>
       <c r="L114" s="46"/>
       <c r="M114" s="46"/>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="K116" s="65">
         <f>K114/K115</f>
-        <v>102.97612387907094</v>
+        <v>102.45888434996202</v>
       </c>
       <c r="L116" s="46"/>
       <c r="M116" s="46"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="K117" s="66" cm="1">
         <f t="array" ref="K117">_FV(A1,"Price")</f>
-        <v>164.37</v>
+        <v>170.7</v>
       </c>
       <c r="L117" s="46"/>
       <c r="M117" s="46"/>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="K118" s="67">
         <f>K116/K117-1</f>
-        <v>-0.37351022766276731</v>
+        <v>-0.39977220650285861</v>
       </c>
       <c r="L118" s="46"/>
       <c r="M118" s="46"/>

--- a/Technology/Software/ZScaler.xlsx
+++ b/Technology/Software/ZScaler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDABAE88-864E-8846-BF4A-2B0C9D164978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FB2A22-DD5C-7942-8ACD-D39781C60E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1706,6 +1706,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1725,7 +1727,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1738,6 +1740,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1865,11 +1869,11 @@
     <v>Powered by Refinitiv</v>
     <v>207.7808</v>
     <v>84.93</v>
-    <v>0.89749999999999996</v>
-    <v>0.5</v>
-    <v>2.5309999999999998E-3</v>
-    <v>0.32</v>
-    <v>1.616E-3</v>
+    <v>0.89739999999999998</v>
+    <v>-1.25</v>
+    <v>-6.2480000000000001E-3</v>
+    <v>0.1</v>
+    <v>5.0299999999999997E-4</v>
     <v>USD</v>
     <v>Zscaler, Inc. is a cloud security company, which has developed a platform incorporating core security functionalities needed to enable access to cloud resources based on identity, context and organization’s policies. The Company’s solution is a purpose-built, multi-tenant, distributed cloud platform that incorporates the security functionality needed to enable users, applications and devices to utilize authorized applications and services based on an organization’s business policies. The Company delivers its solutions using a software-as-a-service (SaaS) business model and sells subscriptions to customers to access its cloud platform, together with related support services. The Company’s cloud-native platform, the Zscaler Zero Trust Exchange, enables customers to secure and connect users, workloads and Internet of things (IoT)/ operational technology (OT) devices across three core products, Zscaler for Users, Zscaler for Workloads and Zscaler for IoT/OT.</v>
     <v>5962</v>
@@ -1877,24 +1881,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Holger Way,, SAN JOSE, CA, 95134 US</v>
-    <v>198.99</v>
+    <v>202.73</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.040639189065</v>
+    <v>45269.032680080469</v>
     <v>0</v>
-    <v>194.75</v>
-    <v>29372490000</v>
+    <v>197.59</v>
+    <v>29486711800</v>
     <v>ZSCALER, INC.</v>
     <v>ZSCALER, INC.</v>
-    <v>197.89</v>
-    <v>197.53</v>
-    <v>198.03</v>
-    <v>198.35</v>
+    <v>198</v>
+    <v>200.05</v>
+    <v>198.8</v>
+    <v>198.9</v>
     <v>148323500</v>
     <v>ZS</v>
     <v>ZSCALER, INC. (XNAS:ZS)</v>
-    <v>2475115</v>
-    <v>2380629</v>
+    <v>2034754</v>
+    <v>2503404</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -2502,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N196"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -11080,7 +11084,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11133,7 +11137,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>29372490000</v>
+        <v>29486711800</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>196</v>
@@ -11153,15 +11157,15 @@
         <v>198</v>
       </c>
       <c r="G3" s="38">
-        <f>AVERAGE(Financials!I129:N129)</f>
-        <v>8.6072642166273861E-3</v>
+        <f>AVERAGE(Financials!G129:N129)</f>
+        <v>1.742192825466532E-2</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>199</v>
       </c>
       <c r="I3" s="39">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>30273051887.082695</v>
+        <v>30354915720.101658</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>200</v>
@@ -11206,21 +11210,21 @@
       </c>
       <c r="G4" s="48">
         <f>A5*(1+(5*G3))</f>
-        <v>154706797.77017465</v>
+        <v>161243906.87740424</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>206</v>
       </c>
       <c r="I4" s="49">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>24017033826.550808</v>
+        <v>24088639366.987293</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="50" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.5309999999999998E-3</v>
+        <v>-6.2480000000000001E-3</v>
       </c>
       <c r="L4" s="51" t="s">
         <v>208</v>
@@ -11265,14 +11269,14 @@
       </c>
       <c r="I5" s="49">
         <f>I4+G5-G6</f>
-        <v>24770662826.550808</v>
+        <v>24842268366.987293</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>214</v>
       </c>
       <c r="K5" s="53" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>198.03</v>
+        <v>198.8</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>215</v>
@@ -11292,7 +11296,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>14.013592557251908</v>
+        <v>14.068087690839695</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>217</v>
@@ -11320,14 +11324,14 @@
       </c>
       <c r="I6" s="50">
         <f>N25</f>
-        <v>7.5787743691478976E-2</v>
+        <v>7.5650774793020931E-2</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>220</v>
       </c>
       <c r="K6" s="58">
         <f>I5/G4</f>
-        <v>160.11360317436711</v>
+        <v>154.06640069739305</v>
       </c>
       <c r="L6" s="59" t="s">
         <v>221</v>
@@ -11347,14 +11351,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <f>O20/F12</f>
-        <v>73.431224999999998</v>
+        <v>73.716779500000001</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>223</v>
       </c>
       <c r="C7" s="62">
         <f>F15/A3</f>
-        <v>1.2358502803133135E-2</v>
+        <v>1.2310630037765011E-2</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>224</v>
@@ -11381,7 +11385,7 @@
       </c>
       <c r="K7" s="68">
         <f>K6/K5-1</f>
-        <v>-0.19146794337036255</v>
+        <v>-0.22501810514389819</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>227</v>
@@ -11708,7 +11712,7 @@
       </c>
       <c r="O14" s="90">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
@@ -11755,7 +11759,7 @@
       </c>
       <c r="O15" s="95" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.89749999999999996</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
@@ -11860,7 +11864,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.9767775000000013E-2</v>
+        <v>7.9609746000000009E-2</v>
       </c>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
@@ -11942,7 +11946,7 @@
       </c>
       <c r="O20" s="104" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>29372490000</v>
+        <v>29486711800</v>
       </c>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
@@ -11972,7 +11976,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>30587268000</v>
+        <v>30701489800</v>
       </c>
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
@@ -12000,7 +12004,7 @@
       </c>
       <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>3.9715152069155046E-2</v>
+        <v>3.9567395846699271E-2</v>
       </c>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
@@ -12025,7 +12029,7 @@
       </c>
       <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.9602848479308449</v>
+        <v>0.96043260415330078</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -12069,7 +12073,7 @@
       <c r="M25" s="79"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.5787743691478976E-2</v>
+        <v>7.5650774793020931E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="43"/>
